--- a/data/Monthly_Tourist_Arrivals_2023-cleaned.xlsx
+++ b/data/Monthly_Tourist_Arrivals_2023-cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source\bells-tgc-ip1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10F3A61-1887-46BF-AC71-A3D8AF221093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B15362E-9979-471E-ACAC-718E5DBFDF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DA3B27D-DCDC-C744-AB8F-F1EB20F446EC}"/>
   </bookViews>
@@ -291,11 +291,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E5A7D6-D647-DF46-AFBA-C07720D69943}">
   <dimension ref="A1:D625"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="H335" sqref="H335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -663,10 +663,10 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>44927</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>3653</v>
       </c>
     </row>
@@ -677,10 +677,10 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>44927</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>168975</v>
       </c>
     </row>
@@ -691,10 +691,10 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>44927</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>72756</v>
       </c>
     </row>
@@ -705,10 +705,10 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>44927</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>8982</v>
       </c>
     </row>
@@ -719,10 +719,10 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>44927</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>38484</v>
       </c>
     </row>
@@ -733,10 +733,10 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>44927</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>29735</v>
       </c>
     </row>
@@ -747,10 +747,10 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>44927</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>31824</v>
       </c>
     </row>
@@ -761,10 +761,10 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>44927</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>7846</v>
       </c>
     </row>
@@ -775,10 +775,10 @@
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>44927</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>28375</v>
       </c>
     </row>
@@ -789,10 +789,10 @@
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>44927</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>26208</v>
       </c>
     </row>
@@ -803,10 +803,10 @@
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>44927</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>31444</v>
       </c>
     </row>
@@ -817,10 +817,10 @@
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>44927</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>3361</v>
       </c>
     </row>
@@ -831,10 +831,10 @@
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>44927</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>18335</v>
       </c>
     </row>
@@ -845,10 +845,10 @@
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>44927</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>60457</v>
       </c>
     </row>
@@ -859,10 +859,10 @@
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>44927</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>131</v>
       </c>
     </row>
@@ -873,10 +873,10 @@
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>44927</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>8789</v>
       </c>
     </row>
@@ -887,10 +887,10 @@
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>44927</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>56605</v>
       </c>
     </row>
@@ -901,10 +901,10 @@
       <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>44927</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>1452</v>
       </c>
     </row>
@@ -915,10 +915,10 @@
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>44927</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <v>3083</v>
       </c>
     </row>
@@ -929,10 +929,10 @@
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>44927</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <v>2302</v>
       </c>
     </row>
@@ -943,10 +943,10 @@
       <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>44927</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>156</v>
       </c>
     </row>
@@ -957,10 +957,10 @@
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>44927</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
         <v>1342</v>
       </c>
     </row>
@@ -971,10 +971,10 @@
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>44927</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
         <v>672</v>
       </c>
     </row>
@@ -985,10 +985,10 @@
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>44927</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="6">
         <v>532</v>
       </c>
     </row>
@@ -999,10 +999,10 @@
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>44927</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
         <v>4074</v>
       </c>
     </row>
@@ -1013,10 +1013,10 @@
       <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>44927</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
         <v>1404</v>
       </c>
     </row>
@@ -1027,10 +1027,10 @@
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>44927</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="6">
         <v>11207</v>
       </c>
     </row>
@@ -1041,10 +1041,10 @@
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>44927</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="6">
         <v>50492</v>
       </c>
     </row>
@@ -1055,10 +1055,10 @@
       <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>44927</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="6">
         <v>6203</v>
       </c>
     </row>
@@ -1069,10 +1069,10 @@
       <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>44927</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="6">
         <v>1707</v>
       </c>
     </row>
@@ -1083,10 +1083,10 @@
       <c r="B32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>44927</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="6">
         <v>2674</v>
       </c>
     </row>
@@ -1097,10 +1097,10 @@
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>44927</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="6">
         <v>2247</v>
       </c>
     </row>
@@ -1111,10 +1111,10 @@
       <c r="B34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>44927</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="6">
         <v>9873</v>
       </c>
     </row>
@@ -1125,10 +1125,10 @@
       <c r="B35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>44927</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="6">
         <v>26678</v>
       </c>
     </row>
@@ -1139,10 +1139,10 @@
       <c r="B36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>44927</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="6">
         <v>4082</v>
       </c>
     </row>
@@ -1153,10 +1153,10 @@
       <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>44927</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="6">
         <v>6430</v>
       </c>
     </row>
@@ -1167,10 +1167,10 @@
       <c r="B38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>44927</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="6">
         <v>1891</v>
       </c>
     </row>
@@ -1181,10 +1181,10 @@
       <c r="B39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>44927</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="6">
         <v>1767</v>
       </c>
     </row>
@@ -1195,10 +1195,10 @@
       <c r="B40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>44927</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="6">
         <v>6637</v>
       </c>
     </row>
@@ -1209,10 +1209,10 @@
       <c r="B41" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>44927</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="6">
         <v>3229</v>
       </c>
     </row>
@@ -1223,10 +1223,10 @@
       <c r="B42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>44927</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="6">
         <v>3234</v>
       </c>
     </row>
@@ -1237,10 +1237,10 @@
       <c r="B43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>44927</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="6">
         <v>5034</v>
       </c>
     </row>
@@ -1251,10 +1251,10 @@
       <c r="B44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>44927</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="6">
         <v>38123</v>
       </c>
     </row>
@@ -1265,10 +1265,10 @@
       <c r="B45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>44927</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="6">
         <v>18233</v>
       </c>
     </row>
@@ -1279,10 +1279,10 @@
       <c r="B46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>44927</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="6">
         <v>102888</v>
       </c>
     </row>
@@ -1293,10 +1293,10 @@
       <c r="B47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>44927</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="6">
         <v>10766</v>
       </c>
     </row>
@@ -1307,10 +1307,10 @@
       <c r="B48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>44927</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="6">
         <v>3140</v>
       </c>
     </row>
@@ -1321,10 +1321,10 @@
       <c r="B49" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>44927</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="6">
         <v>192</v>
       </c>
     </row>
@@ -1335,10 +1335,10 @@
       <c r="B50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>44927</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="6">
         <v>418</v>
       </c>
     </row>
@@ -1349,10 +1349,10 @@
       <c r="B51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>44927</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="6">
         <v>2229</v>
       </c>
     </row>
@@ -1363,10 +1363,10 @@
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>44927</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="6">
         <v>1343</v>
       </c>
     </row>
@@ -1377,10 +1377,10 @@
       <c r="B53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>44927</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="6">
         <v>120</v>
       </c>
     </row>
@@ -1391,10 +1391,10 @@
       <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>44958</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="6">
         <v>4739</v>
       </c>
     </row>
@@ -1405,10 +1405,10 @@
       <c r="B55" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>44958</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="6">
         <v>156448</v>
       </c>
     </row>
@@ -1419,24 +1419,24 @@
       <c r="B56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>44958</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="6">
         <v>88040</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="5" customFormat="1" ht="14.4">
+    <row r="57" spans="1:4" s="4" customFormat="1" ht="14.4">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>44958</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="6">
         <v>7734</v>
       </c>
     </row>
@@ -1447,10 +1447,10 @@
       <c r="B58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>44958</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="6">
         <v>47446</v>
       </c>
     </row>
@@ -1461,10 +1461,10 @@
       <c r="B59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>44958</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="6">
         <v>37156</v>
       </c>
     </row>
@@ -1475,10 +1475,10 @@
       <c r="B60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>44958</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="6">
         <v>27896</v>
       </c>
     </row>
@@ -1489,10 +1489,10 @@
       <c r="B61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>44958</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="6">
         <v>7037</v>
       </c>
     </row>
@@ -1503,10 +1503,10 @@
       <c r="B62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>44958</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="6">
         <v>35312</v>
       </c>
     </row>
@@ -1517,24 +1517,24 @@
       <c r="B63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>44958</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="6">
         <v>20227</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="5" customFormat="1" ht="14.4">
+    <row r="64" spans="1:4" s="4" customFormat="1" ht="14.4">
       <c r="A64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>44958</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="6">
         <v>25037</v>
       </c>
     </row>
@@ -1545,10 +1545,10 @@
       <c r="B65" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>44958</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="6">
         <v>1702</v>
       </c>
     </row>
@@ -1559,10 +1559,10 @@
       <c r="B66" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>44958</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="6">
         <v>32932</v>
       </c>
     </row>
@@ -1573,10 +1573,10 @@
       <c r="B67" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>44958</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="6">
         <v>64876</v>
       </c>
     </row>
@@ -1587,10 +1587,10 @@
       <c r="B68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>44958</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="6">
         <v>173</v>
       </c>
     </row>
@@ -1601,10 +1601,10 @@
       <c r="B69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>44958</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="6">
         <v>8006</v>
       </c>
     </row>
@@ -1615,10 +1615,10 @@
       <c r="B70" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>44958</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="6">
         <v>61301</v>
       </c>
     </row>
@@ -1629,10 +1629,10 @@
       <c r="B71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>44958</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="6">
         <v>1584</v>
       </c>
     </row>
@@ -1643,10 +1643,10 @@
       <c r="B72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="5">
         <v>44958</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="6">
         <v>3829</v>
       </c>
     </row>
@@ -1657,10 +1657,10 @@
       <c r="B73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="5">
         <v>44958</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="6">
         <v>2163</v>
       </c>
     </row>
@@ -1671,10 +1671,10 @@
       <c r="B74" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="5">
         <v>44958</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="6">
         <v>175</v>
       </c>
     </row>
@@ -1685,10 +1685,10 @@
       <c r="B75" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="5">
         <v>44958</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="6">
         <v>1510</v>
       </c>
     </row>
@@ -1699,10 +1699,10 @@
       <c r="B76" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="5">
         <v>44958</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="6">
         <v>359</v>
       </c>
     </row>
@@ -1713,10 +1713,10 @@
       <c r="B77" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="5">
         <v>44958</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="6">
         <v>688</v>
       </c>
     </row>
@@ -1727,10 +1727,10 @@
       <c r="B78" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="5">
         <v>44958</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="6">
         <v>4971</v>
       </c>
     </row>
@@ -1741,10 +1741,10 @@
       <c r="B79" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="5">
         <v>44958</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="6">
         <v>1456</v>
       </c>
     </row>
@@ -1755,10 +1755,10 @@
       <c r="B80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="5">
         <v>44958</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="6">
         <v>13407</v>
       </c>
     </row>
@@ -1769,10 +1769,10 @@
       <c r="B81" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="5">
         <v>44958</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="6">
         <v>52830</v>
       </c>
     </row>
@@ -1783,10 +1783,10 @@
       <c r="B82" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="5">
         <v>44958</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="6">
         <v>6465</v>
       </c>
     </row>
@@ -1797,10 +1797,10 @@
       <c r="B83" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="5">
         <v>44958</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="6">
         <v>2079</v>
       </c>
     </row>
@@ -1811,10 +1811,10 @@
       <c r="B84" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="5">
         <v>44958</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="6">
         <v>3216</v>
       </c>
     </row>
@@ -1825,10 +1825,10 @@
       <c r="B85" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="5">
         <v>44958</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="6">
         <v>2312</v>
       </c>
     </row>
@@ -1839,10 +1839,10 @@
       <c r="B86" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="5">
         <v>44958</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="6">
         <v>13722</v>
       </c>
     </row>
@@ -1853,10 +1853,10 @@
       <c r="B87" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="5">
         <v>44958</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="6">
         <v>31063</v>
       </c>
     </row>
@@ -1867,10 +1867,10 @@
       <c r="B88" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="5">
         <v>44958</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="6">
         <v>4861</v>
       </c>
     </row>
@@ -1881,10 +1881,10 @@
       <c r="B89" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="5">
         <v>44958</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="6">
         <v>7053</v>
       </c>
     </row>
@@ -1895,10 +1895,10 @@
       <c r="B90" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="5">
         <v>44958</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="6">
         <v>2439</v>
       </c>
     </row>
@@ -1909,10 +1909,10 @@
       <c r="B91" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="5">
         <v>44958</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="6">
         <v>1868</v>
       </c>
     </row>
@@ -1923,10 +1923,10 @@
       <c r="B92" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="5">
         <v>44958</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="6">
         <v>7009</v>
       </c>
     </row>
@@ -1937,10 +1937,10 @@
       <c r="B93" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="5">
         <v>44958</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="6">
         <v>3302</v>
       </c>
     </row>
@@ -1951,10 +1951,10 @@
       <c r="B94" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="5">
         <v>44958</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="6">
         <v>2967</v>
       </c>
     </row>
@@ -1965,10 +1965,10 @@
       <c r="B95" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="5">
         <v>44958</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="6">
         <v>6310</v>
       </c>
     </row>
@@ -1979,10 +1979,10 @@
       <c r="B96" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="5">
         <v>44958</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="6">
         <v>45785</v>
       </c>
     </row>
@@ -1993,10 +1993,10 @@
       <c r="B97" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="5">
         <v>44958</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="6">
         <v>22398</v>
       </c>
     </row>
@@ -2007,10 +2007,10 @@
       <c r="B98" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="5">
         <v>44958</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="6">
         <v>72385</v>
       </c>
     </row>
@@ -2021,10 +2021,10 @@
       <c r="B99" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="5">
         <v>44958</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="6">
         <v>6821</v>
       </c>
     </row>
@@ -2035,10 +2035,10 @@
       <c r="B100" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="5">
         <v>44958</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="6">
         <v>2559</v>
       </c>
     </row>
@@ -2049,10 +2049,10 @@
       <c r="B101" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="5">
         <v>44958</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="6">
         <v>205</v>
       </c>
     </row>
@@ -2063,10 +2063,10 @@
       <c r="B102" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="5">
         <v>44958</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="6">
         <v>274</v>
       </c>
     </row>
@@ -2077,10 +2077,10 @@
       <c r="B103" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="5">
         <v>44958</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="6">
         <v>1698</v>
       </c>
     </row>
@@ -2091,10 +2091,10 @@
       <c r="B104" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="5">
         <v>44958</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="6">
         <v>1896</v>
       </c>
     </row>
@@ -2105,10 +2105,10 @@
       <c r="B105" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="5">
         <v>44958</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="6">
         <v>123</v>
       </c>
     </row>
@@ -2119,10 +2119,10 @@
       <c r="B106" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="5">
         <v>44986</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="6">
         <v>4460</v>
       </c>
     </row>
@@ -2133,10 +2133,10 @@
       <c r="B107" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="5">
         <v>44986</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="6">
         <v>171507</v>
       </c>
     </row>
@@ -2147,10 +2147,10 @@
       <c r="B108" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="5">
         <v>44986</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="6">
         <v>97835</v>
       </c>
     </row>
@@ -2161,10 +2161,10 @@
       <c r="B109" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="5">
         <v>44986</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="6">
         <v>9122</v>
       </c>
     </row>
@@ -2175,10 +2175,10 @@
       <c r="B110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="5">
         <v>44986</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="6">
         <v>50591</v>
       </c>
     </row>
@@ -2189,10 +2189,10 @@
       <c r="B111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="5">
         <v>44986</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="6">
         <v>43145</v>
       </c>
     </row>
@@ -2203,10 +2203,10 @@
       <c r="B112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="5">
         <v>44986</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="6">
         <v>31347</v>
       </c>
     </row>
@@ -2217,10 +2217,10 @@
       <c r="B113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="5">
         <v>44986</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="6">
         <v>6927</v>
       </c>
     </row>
@@ -2231,10 +2231,10 @@
       <c r="B114" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="5">
         <v>44986</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="6">
         <v>60888</v>
       </c>
     </row>
@@ -2245,10 +2245,10 @@
       <c r="B115" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="5">
         <v>44986</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="6">
         <v>23465</v>
       </c>
     </row>
@@ -2259,10 +2259,10 @@
       <c r="B116" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="5">
         <v>44986</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="6">
         <v>19204</v>
       </c>
     </row>
@@ -2273,10 +2273,10 @@
       <c r="B117" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="5">
         <v>44986</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="6">
         <v>1575</v>
       </c>
     </row>
@@ -2287,10 +2287,10 @@
       <c r="B118" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="5">
         <v>44986</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="6">
         <v>36302</v>
       </c>
     </row>
@@ -2301,10 +2301,10 @@
       <c r="B119" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="5">
         <v>44986</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="6">
         <v>35396</v>
       </c>
     </row>
@@ -2315,10 +2315,10 @@
       <c r="B120" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="5">
         <v>44986</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="6">
         <v>105</v>
       </c>
     </row>
@@ -2329,10 +2329,10 @@
       <c r="B121" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="5">
         <v>44986</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="6">
         <v>9711</v>
       </c>
     </row>
@@ -2343,10 +2343,10 @@
       <c r="B122" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="5">
         <v>44986</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="6">
         <v>75339</v>
       </c>
     </row>
@@ -2357,10 +2357,10 @@
       <c r="B123" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="5">
         <v>44986</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="6">
         <v>1060</v>
       </c>
     </row>
@@ -2371,10 +2371,10 @@
       <c r="B124" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="5">
         <v>44986</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="6">
         <v>4088</v>
       </c>
     </row>
@@ -2385,10 +2385,10 @@
       <c r="B125" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="5">
         <v>44986</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="6">
         <v>2272</v>
       </c>
     </row>
@@ -2399,10 +2399,10 @@
       <c r="B126" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="5">
         <v>44986</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="6">
         <v>1414</v>
       </c>
     </row>
@@ -2413,10 +2413,10 @@
       <c r="B127" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="5">
         <v>44986</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="6">
         <v>1639</v>
       </c>
     </row>
@@ -2427,10 +2427,10 @@
       <c r="B128" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="5">
         <v>44986</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="6">
         <v>205</v>
       </c>
     </row>
@@ -2441,10 +2441,10 @@
       <c r="B129" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="5">
         <v>44986</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="6">
         <v>880</v>
       </c>
     </row>
@@ -2455,10 +2455,10 @@
       <c r="B130" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="5">
         <v>44986</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="6">
         <v>6795</v>
       </c>
     </row>
@@ -2469,10 +2469,10 @@
       <c r="B131" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="5">
         <v>44986</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="6">
         <v>1990</v>
       </c>
     </row>
@@ -2483,10 +2483,10 @@
       <c r="B132" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="5">
         <v>44986</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="6">
         <v>12626</v>
       </c>
     </row>
@@ -2497,10 +2497,10 @@
       <c r="B133" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="5">
         <v>44986</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="6">
         <v>54157</v>
       </c>
     </row>
@@ -2511,10 +2511,10 @@
       <c r="B134" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="5">
         <v>44986</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="6">
         <v>6841</v>
       </c>
     </row>
@@ -2525,10 +2525,10 @@
       <c r="B135" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="5">
         <v>44986</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="6">
         <v>2215</v>
       </c>
     </row>
@@ -2539,10 +2539,10 @@
       <c r="B136" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="5">
         <v>44986</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="6">
         <v>2679</v>
       </c>
     </row>
@@ -2553,10 +2553,10 @@
       <c r="B137" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="5">
         <v>44986</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="6">
         <v>2131</v>
       </c>
     </row>
@@ -2567,10 +2567,10 @@
       <c r="B138" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="5">
         <v>44986</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="6">
         <v>12924</v>
       </c>
     </row>
@@ -2581,10 +2581,10 @@
       <c r="B139" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139" s="5">
         <v>44986</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="6">
         <v>34976</v>
       </c>
     </row>
@@ -2595,10 +2595,10 @@
       <c r="B140" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="5">
         <v>44986</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="6">
         <v>4643</v>
       </c>
     </row>
@@ -2609,10 +2609,10 @@
       <c r="B141" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="5">
         <v>44986</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="6">
         <v>6956</v>
       </c>
     </row>
@@ -2623,10 +2623,10 @@
       <c r="B142" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="5">
         <v>44986</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="6">
         <v>2342</v>
       </c>
     </row>
@@ -2637,10 +2637,10 @@
       <c r="B143" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="5">
         <v>44986</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="6">
         <v>1992</v>
       </c>
     </row>
@@ -2651,10 +2651,10 @@
       <c r="B144" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="5">
         <v>44986</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="6">
         <v>6635</v>
       </c>
     </row>
@@ -2665,10 +2665,10 @@
       <c r="B145" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="5">
         <v>44986</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="6">
         <v>3936</v>
       </c>
     </row>
@@ -2679,10 +2679,10 @@
       <c r="B146" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="5">
         <v>44986</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="6">
         <v>2786</v>
       </c>
     </row>
@@ -2693,10 +2693,10 @@
       <c r="B147" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="5">
         <v>44986</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="6">
         <v>5940</v>
       </c>
     </row>
@@ -2707,10 +2707,10 @@
       <c r="B148" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C148" s="5">
         <v>44986</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="6">
         <v>50330</v>
       </c>
     </row>
@@ -2721,10 +2721,10 @@
       <c r="B149" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C149" s="5">
         <v>44986</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="6">
         <v>21453</v>
       </c>
     </row>
@@ -2735,10 +2735,10 @@
       <c r="B150" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="5">
         <v>44986</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="6">
         <v>74268</v>
       </c>
     </row>
@@ -2749,10 +2749,10 @@
       <c r="B151" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C151" s="5">
         <v>44986</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="6">
         <v>6871</v>
       </c>
     </row>
@@ -2763,10 +2763,10 @@
       <c r="B152" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="5">
         <v>44986</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="6">
         <v>2688</v>
       </c>
     </row>
@@ -2777,10 +2777,10 @@
       <c r="B153" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C153" s="5">
         <v>44986</v>
       </c>
-      <c r="D153" s="4">
+      <c r="D153" s="6">
         <v>168</v>
       </c>
     </row>
@@ -2791,10 +2791,10 @@
       <c r="B154" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C154" s="6">
+      <c r="C154" s="5">
         <v>44986</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="6">
         <v>474</v>
       </c>
     </row>
@@ -2805,10 +2805,10 @@
       <c r="B155" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C155" s="5">
         <v>44986</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="6">
         <v>1995</v>
       </c>
     </row>
@@ -2819,10 +2819,10 @@
       <c r="B156" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C156" s="5">
         <v>44986</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="6">
         <v>1663</v>
       </c>
     </row>
@@ -2833,10 +2833,10 @@
       <c r="B157" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C157" s="5">
         <v>44986</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="6">
         <v>89</v>
       </c>
     </row>
@@ -2847,10 +2847,10 @@
       <c r="B158" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C158" s="6">
+      <c r="C158" s="5">
         <v>45017</v>
       </c>
-      <c r="D158" s="4">
+      <c r="D158" s="6">
         <v>5850</v>
       </c>
     </row>
@@ -2861,10 +2861,10 @@
       <c r="B159" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C159" s="6">
+      <c r="C159" s="5">
         <v>45017</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="6">
         <v>220067</v>
       </c>
     </row>
@@ -2875,10 +2875,10 @@
       <c r="B160" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C160" s="6">
+      <c r="C160" s="5">
         <v>45017</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="6">
         <v>98190</v>
       </c>
     </row>
@@ -2889,10 +2889,10 @@
       <c r="B161" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="6">
+      <c r="C161" s="5">
         <v>45017</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="6">
         <v>11787</v>
       </c>
     </row>
@@ -2903,10 +2903,10 @@
       <c r="B162" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="6">
+      <c r="C162" s="5">
         <v>45017</v>
       </c>
-      <c r="D162" s="4">
+      <c r="D162" s="6">
         <v>57030</v>
       </c>
     </row>
@@ -2917,10 +2917,10 @@
       <c r="B163" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C163" s="5">
         <v>45017</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D163" s="6">
         <v>49727</v>
       </c>
     </row>
@@ -2931,10 +2931,10 @@
       <c r="B164" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C164" s="5">
         <v>45017</v>
       </c>
-      <c r="D164" s="4">
+      <c r="D164" s="6">
         <v>36630</v>
       </c>
     </row>
@@ -2945,10 +2945,10 @@
       <c r="B165" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C165" s="6">
+      <c r="C165" s="5">
         <v>45017</v>
       </c>
-      <c r="D165" s="4">
+      <c r="D165" s="6">
         <v>10053</v>
       </c>
     </row>
@@ -2959,10 +2959,10 @@
       <c r="B166" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C166" s="5">
         <v>45017</v>
       </c>
-      <c r="D166" s="4">
+      <c r="D166" s="6">
         <v>90725</v>
       </c>
     </row>
@@ -2973,10 +2973,10 @@
       <c r="B167" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C167" s="6">
+      <c r="C167" s="5">
         <v>45017</v>
       </c>
-      <c r="D167" s="4">
+      <c r="D167" s="6">
         <v>32791</v>
       </c>
     </row>
@@ -2987,10 +2987,10 @@
       <c r="B168" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C168" s="6">
+      <c r="C168" s="5">
         <v>45017</v>
       </c>
-      <c r="D168" s="4">
+      <c r="D168" s="6">
         <v>25280</v>
       </c>
     </row>
@@ -3001,10 +3001,10 @@
       <c r="B169" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C169" s="6">
+      <c r="C169" s="5">
         <v>45017</v>
       </c>
-      <c r="D169" s="4">
+      <c r="D169" s="6">
         <v>2107</v>
       </c>
     </row>
@@ -3015,10 +3015,10 @@
       <c r="B170" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C170" s="6">
+      <c r="C170" s="5">
         <v>45017</v>
       </c>
-      <c r="D170" s="4">
+      <c r="D170" s="6">
         <v>22134</v>
       </c>
     </row>
@@ -3029,10 +3029,10 @@
       <c r="B171" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C171" s="5">
         <v>45017</v>
       </c>
-      <c r="D171" s="4">
+      <c r="D171" s="6">
         <v>31780</v>
       </c>
     </row>
@@ -3043,10 +3043,10 @@
       <c r="B172" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C172" s="6">
+      <c r="C172" s="5">
         <v>45017</v>
       </c>
-      <c r="D172" s="4">
+      <c r="D172" s="6">
         <v>98</v>
       </c>
     </row>
@@ -3057,10 +3057,10 @@
       <c r="B173" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C173" s="6">
+      <c r="C173" s="5">
         <v>45017</v>
       </c>
-      <c r="D173" s="4">
+      <c r="D173" s="6">
         <v>9824</v>
       </c>
     </row>
@@ -3071,10 +3071,10 @@
       <c r="B174" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C174" s="6">
+      <c r="C174" s="5">
         <v>45017</v>
       </c>
-      <c r="D174" s="4">
+      <c r="D174" s="6">
         <v>97032</v>
       </c>
     </row>
@@ -3085,10 +3085,10 @@
       <c r="B175" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C175" s="6">
+      <c r="C175" s="5">
         <v>45017</v>
       </c>
-      <c r="D175" s="4">
+      <c r="D175" s="6">
         <v>684</v>
       </c>
     </row>
@@ -3099,10 +3099,10 @@
       <c r="B176" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C176" s="6">
+      <c r="C176" s="5">
         <v>45017</v>
       </c>
-      <c r="D176" s="4">
+      <c r="D176" s="6">
         <v>4897</v>
       </c>
     </row>
@@ -3113,10 +3113,10 @@
       <c r="B177" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C177" s="6">
+      <c r="C177" s="5">
         <v>45017</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="6">
         <v>2231</v>
       </c>
     </row>
@@ -3127,10 +3127,10 @@
       <c r="B178" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C178" s="6">
+      <c r="C178" s="5">
         <v>45017</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D178" s="6">
         <v>421</v>
       </c>
     </row>
@@ -3141,10 +3141,10 @@
       <c r="B179" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C179" s="6">
+      <c r="C179" s="5">
         <v>45017</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D179" s="6">
         <v>1275</v>
       </c>
     </row>
@@ -3155,10 +3155,10 @@
       <c r="B180" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C180" s="6">
+      <c r="C180" s="5">
         <v>45017</v>
       </c>
-      <c r="D180" s="4">
+      <c r="D180" s="6">
         <v>308</v>
       </c>
     </row>
@@ -3169,10 +3169,10 @@
       <c r="B181" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C181" s="6">
+      <c r="C181" s="5">
         <v>45017</v>
       </c>
-      <c r="D181" s="4">
+      <c r="D181" s="6">
         <v>750</v>
       </c>
     </row>
@@ -3183,10 +3183,10 @@
       <c r="B182" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="6">
+      <c r="C182" s="5">
         <v>45017</v>
       </c>
-      <c r="D182" s="4">
+      <c r="D182" s="6">
         <v>6714</v>
       </c>
     </row>
@@ -3197,10 +3197,10 @@
       <c r="B183" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C183" s="6">
+      <c r="C183" s="5">
         <v>45017</v>
       </c>
-      <c r="D183" s="4">
+      <c r="D183" s="6">
         <v>2136</v>
       </c>
     </row>
@@ -3211,10 +3211,10 @@
       <c r="B184" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C184" s="6">
+      <c r="C184" s="5">
         <v>45017</v>
       </c>
-      <c r="D184" s="4">
+      <c r="D184" s="6">
         <v>9428</v>
       </c>
     </row>
@@ -3225,10 +3225,10 @@
       <c r="B185" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C185" s="6">
+      <c r="C185" s="5">
         <v>45017</v>
       </c>
-      <c r="D185" s="4">
+      <c r="D185" s="6">
         <v>44779</v>
       </c>
     </row>
@@ -3239,10 +3239,10 @@
       <c r="B186" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C186" s="6">
+      <c r="C186" s="5">
         <v>45017</v>
       </c>
-      <c r="D186" s="4">
+      <c r="D186" s="6">
         <v>6822</v>
       </c>
     </row>
@@ -3253,10 +3253,10 @@
       <c r="B187" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C187" s="6">
+      <c r="C187" s="5">
         <v>45017</v>
       </c>
-      <c r="D187" s="4">
+      <c r="D187" s="6">
         <v>2144</v>
       </c>
     </row>
@@ -3267,10 +3267,10 @@
       <c r="B188" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C188" s="6">
+      <c r="C188" s="5">
         <v>45017</v>
       </c>
-      <c r="D188" s="4">
+      <c r="D188" s="6">
         <v>2407</v>
       </c>
     </row>
@@ -3281,10 +3281,10 @@
       <c r="B189" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C189" s="6">
+      <c r="C189" s="5">
         <v>45017</v>
       </c>
-      <c r="D189" s="4">
+      <c r="D189" s="6">
         <v>1318</v>
       </c>
     </row>
@@ -3295,10 +3295,10 @@
       <c r="B190" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C190" s="6">
+      <c r="C190" s="5">
         <v>45017</v>
       </c>
-      <c r="D190" s="4">
+      <c r="D190" s="6">
         <v>13260</v>
       </c>
     </row>
@@ -3309,10 +3309,10 @@
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="6">
+      <c r="C191" s="5">
         <v>45017</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="6">
         <v>24219</v>
       </c>
     </row>
@@ -3323,10 +3323,10 @@
       <c r="B192" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C192" s="6">
+      <c r="C192" s="5">
         <v>45017</v>
       </c>
-      <c r="D192" s="4">
+      <c r="D192" s="6">
         <v>4220</v>
       </c>
     </row>
@@ -3337,10 +3337,10 @@
       <c r="B193" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C193" s="6">
+      <c r="C193" s="5">
         <v>45017</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="6">
         <v>6398</v>
       </c>
     </row>
@@ -3351,10 +3351,10 @@
       <c r="B194" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C194" s="6">
+      <c r="C194" s="5">
         <v>45017</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="6">
         <v>1810</v>
       </c>
     </row>
@@ -3365,10 +3365,10 @@
       <c r="B195" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C195" s="6">
+      <c r="C195" s="5">
         <v>45017</v>
       </c>
-      <c r="D195" s="4">
+      <c r="D195" s="6">
         <v>1893</v>
       </c>
     </row>
@@ -3379,10 +3379,10 @@
       <c r="B196" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C196" s="6">
+      <c r="C196" s="5">
         <v>45017</v>
       </c>
-      <c r="D196" s="4">
+      <c r="D196" s="6">
         <v>5044</v>
       </c>
     </row>
@@ -3393,10 +3393,10 @@
       <c r="B197" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C197" s="6">
+      <c r="C197" s="5">
         <v>45017</v>
       </c>
-      <c r="D197" s="4">
+      <c r="D197" s="6">
         <v>4517</v>
       </c>
     </row>
@@ -3407,10 +3407,10 @@
       <c r="B198" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C198" s="6">
+      <c r="C198" s="5">
         <v>45017</v>
       </c>
-      <c r="D198" s="4">
+      <c r="D198" s="6">
         <v>2150</v>
       </c>
     </row>
@@ -3421,10 +3421,10 @@
       <c r="B199" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C199" s="6">
+      <c r="C199" s="5">
         <v>45017</v>
       </c>
-      <c r="D199" s="4">
+      <c r="D199" s="6">
         <v>7350</v>
       </c>
     </row>
@@ -3435,10 +3435,10 @@
       <c r="B200" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C200" s="6">
+      <c r="C200" s="5">
         <v>45017</v>
       </c>
-      <c r="D200" s="4">
+      <c r="D200" s="6">
         <v>41576</v>
       </c>
     </row>
@@ -3449,10 +3449,10 @@
       <c r="B201" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C201" s="6">
+      <c r="C201" s="5">
         <v>45017</v>
       </c>
-      <c r="D201" s="4">
+      <c r="D201" s="6">
         <v>17109</v>
       </c>
     </row>
@@ -3463,10 +3463,10 @@
       <c r="B202" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C202" s="6">
+      <c r="C202" s="5">
         <v>45017</v>
       </c>
-      <c r="D202" s="4">
+      <c r="D202" s="6">
         <v>92937</v>
       </c>
     </row>
@@ -3477,10 +3477,10 @@
       <c r="B203" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C203" s="6">
+      <c r="C203" s="5">
         <v>45017</v>
       </c>
-      <c r="D203" s="4">
+      <c r="D203" s="6">
         <v>11065</v>
       </c>
     </row>
@@ -3491,10 +3491,10 @@
       <c r="B204" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C204" s="6">
+      <c r="C204" s="5">
         <v>45017</v>
       </c>
-      <c r="D204" s="4">
+      <c r="D204" s="6">
         <v>2739</v>
       </c>
     </row>
@@ -3505,10 +3505,10 @@
       <c r="B205" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C205" s="6">
+      <c r="C205" s="5">
         <v>45017</v>
       </c>
-      <c r="D205" s="4">
+      <c r="D205" s="6">
         <v>155</v>
       </c>
     </row>
@@ -3519,10 +3519,10 @@
       <c r="B206" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C206" s="6">
+      <c r="C206" s="5">
         <v>45017</v>
       </c>
-      <c r="D206" s="4">
+      <c r="D206" s="6">
         <v>581</v>
       </c>
     </row>
@@ -3533,10 +3533,10 @@
       <c r="B207" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C207" s="6">
+      <c r="C207" s="5">
         <v>45017</v>
       </c>
-      <c r="D207" s="4">
+      <c r="D207" s="6">
         <v>2177</v>
       </c>
     </row>
@@ -3547,10 +3547,10 @@
       <c r="B208" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C208" s="6">
+      <c r="C208" s="5">
         <v>45017</v>
       </c>
-      <c r="D208" s="4">
+      <c r="D208" s="6">
         <v>1899</v>
       </c>
     </row>
@@ -3561,10 +3561,10 @@
       <c r="B209" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C209" s="6">
+      <c r="C209" s="5">
         <v>45017</v>
       </c>
-      <c r="D209" s="4">
+      <c r="D209" s="6">
         <v>92</v>
       </c>
     </row>
@@ -3575,10 +3575,10 @@
       <c r="B210" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C210" s="6">
+      <c r="C210" s="5">
         <v>45047</v>
       </c>
-      <c r="D210" s="4">
+      <c r="D210" s="6">
         <v>4570</v>
       </c>
     </row>
@@ -3589,10 +3589,10 @@
       <c r="B211" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C211" s="6">
+      <c r="C211" s="5">
         <v>45047</v>
       </c>
-      <c r="D211" s="4">
+      <c r="D211" s="6">
         <v>183758</v>
       </c>
     </row>
@@ -3603,10 +3603,10 @@
       <c r="B212" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C212" s="6">
+      <c r="C212" s="5">
         <v>45047</v>
       </c>
-      <c r="D212" s="4">
+      <c r="D212" s="6">
         <v>98347</v>
       </c>
     </row>
@@ -3617,10 +3617,10 @@
       <c r="B213" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C213" s="6">
+      <c r="C213" s="5">
         <v>45047</v>
       </c>
-      <c r="D213" s="4">
+      <c r="D213" s="6">
         <v>10104</v>
       </c>
     </row>
@@ -3631,10 +3631,10 @@
       <c r="B214" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="6">
+      <c r="C214" s="5">
         <v>45047</v>
       </c>
-      <c r="D214" s="4">
+      <c r="D214" s="6">
         <v>59346</v>
       </c>
     </row>
@@ -3645,10 +3645,10 @@
       <c r="B215" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C215" s="6">
+      <c r="C215" s="5">
         <v>45047</v>
       </c>
-      <c r="D215" s="4">
+      <c r="D215" s="6">
         <v>40375</v>
       </c>
     </row>
@@ -3659,10 +3659,10 @@
       <c r="B216" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C216" s="6">
+      <c r="C216" s="5">
         <v>45047</v>
       </c>
-      <c r="D216" s="4">
+      <c r="D216" s="6">
         <v>50765</v>
       </c>
     </row>
@@ -3673,10 +3673,10 @@
       <c r="B217" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C217" s="6">
+      <c r="C217" s="5">
         <v>45047</v>
       </c>
-      <c r="D217" s="4">
+      <c r="D217" s="6">
         <v>8998</v>
       </c>
     </row>
@@ -3687,10 +3687,10 @@
       <c r="B218" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C218" s="6">
+      <c r="C218" s="5">
         <v>45047</v>
       </c>
-      <c r="D218" s="4">
+      <c r="D218" s="6">
         <v>95613</v>
       </c>
     </row>
@@ -3701,10 +3701,10 @@
       <c r="B219" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C219" s="6">
+      <c r="C219" s="5">
         <v>45047</v>
       </c>
-      <c r="D219" s="4">
+      <c r="D219" s="6">
         <v>26356</v>
       </c>
     </row>
@@ -3715,10 +3715,10 @@
       <c r="B220" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C220" s="6">
+      <c r="C220" s="5">
         <v>45047</v>
       </c>
-      <c r="D220" s="4">
+      <c r="D220" s="6">
         <v>24313</v>
       </c>
     </row>
@@ -3729,10 +3729,10 @@
       <c r="B221" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C221" s="6">
+      <c r="C221" s="5">
         <v>45047</v>
       </c>
-      <c r="D221" s="4">
+      <c r="D221" s="6">
         <v>1771</v>
       </c>
     </row>
@@ -3743,10 +3743,10 @@
       <c r="B222" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C222" s="6">
+      <c r="C222" s="5">
         <v>45047</v>
       </c>
-      <c r="D222" s="4">
+      <c r="D222" s="6">
         <v>29130</v>
       </c>
     </row>
@@ -3757,10 +3757,10 @@
       <c r="B223" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C223" s="6">
+      <c r="C223" s="5">
         <v>45047</v>
       </c>
-      <c r="D223" s="4">
+      <c r="D223" s="6">
         <v>39203</v>
       </c>
     </row>
@@ -3771,10 +3771,10 @@
       <c r="B224" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C224" s="6">
+      <c r="C224" s="5">
         <v>45047</v>
       </c>
-      <c r="D224" s="4">
+      <c r="D224" s="6">
         <v>86</v>
       </c>
     </row>
@@ -3785,10 +3785,10 @@
       <c r="B225" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C225" s="6">
+      <c r="C225" s="5">
         <v>45047</v>
       </c>
-      <c r="D225" s="4">
+      <c r="D225" s="6">
         <v>9529</v>
       </c>
     </row>
@@ -3799,10 +3799,10 @@
       <c r="B226" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C226" s="6">
+      <c r="C226" s="5">
         <v>45047</v>
       </c>
-      <c r="D226" s="4">
+      <c r="D226" s="6">
         <v>130444</v>
       </c>
     </row>
@@ -3813,10 +3813,10 @@
       <c r="B227" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C227" s="6">
+      <c r="C227" s="5">
         <v>45047</v>
       </c>
-      <c r="D227" s="4">
+      <c r="D227" s="6">
         <v>1222</v>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
       <c r="B228" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C228" s="6">
+      <c r="C228" s="5">
         <v>45047</v>
       </c>
-      <c r="D228" s="4">
+      <c r="D228" s="6">
         <v>4276</v>
       </c>
     </row>
@@ -3841,10 +3841,10 @@
       <c r="B229" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C229" s="6">
+      <c r="C229" s="5">
         <v>45047</v>
       </c>
-      <c r="D229" s="4">
+      <c r="D229" s="6">
         <v>2242</v>
       </c>
     </row>
@@ -3855,10 +3855,10 @@
       <c r="B230" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C230" s="6">
+      <c r="C230" s="5">
         <v>45047</v>
       </c>
-      <c r="D230" s="4">
+      <c r="D230" s="6">
         <v>190</v>
       </c>
     </row>
@@ -3869,10 +3869,10 @@
       <c r="B231" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C231" s="6">
+      <c r="C231" s="5">
         <v>45047</v>
       </c>
-      <c r="D231" s="4">
+      <c r="D231" s="6">
         <v>1184</v>
       </c>
     </row>
@@ -3883,10 +3883,10 @@
       <c r="B232" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C232" s="6">
+      <c r="C232" s="5">
         <v>45047</v>
       </c>
-      <c r="D232" s="4">
+      <c r="D232" s="6">
         <v>305</v>
       </c>
     </row>
@@ -3897,10 +3897,10 @@
       <c r="B233" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C233" s="6">
+      <c r="C233" s="5">
         <v>45047</v>
       </c>
-      <c r="D233" s="4">
+      <c r="D233" s="6">
         <v>836</v>
       </c>
     </row>
@@ -3911,10 +3911,10 @@
       <c r="B234" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="6">
+      <c r="C234" s="5">
         <v>45047</v>
       </c>
-      <c r="D234" s="4">
+      <c r="D234" s="6">
         <v>5240</v>
       </c>
     </row>
@@ -3925,10 +3925,10 @@
       <c r="B235" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C235" s="6">
+      <c r="C235" s="5">
         <v>45047</v>
       </c>
-      <c r="D235" s="4">
+      <c r="D235" s="6">
         <v>1653</v>
       </c>
     </row>
@@ -3939,10 +3939,10 @@
       <c r="B236" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C236" s="6">
+      <c r="C236" s="5">
         <v>45047</v>
       </c>
-      <c r="D236" s="4">
+      <c r="D236" s="6">
         <v>12592</v>
       </c>
     </row>
@@ -3953,10 +3953,10 @@
       <c r="B237" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C237" s="6">
+      <c r="C237" s="5">
         <v>45047</v>
       </c>
-      <c r="D237" s="4">
+      <c r="D237" s="6">
         <v>50898</v>
       </c>
     </row>
@@ -3967,10 +3967,10 @@
       <c r="B238" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C238" s="6">
+      <c r="C238" s="5">
         <v>45047</v>
       </c>
-      <c r="D238" s="4">
+      <c r="D238" s="6">
         <v>6936</v>
       </c>
     </row>
@@ -3981,10 +3981,10 @@
       <c r="B239" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C239" s="6">
+      <c r="C239" s="5">
         <v>45047</v>
       </c>
-      <c r="D239" s="4">
+      <c r="D239" s="6">
         <v>2066</v>
       </c>
     </row>
@@ -3995,10 +3995,10 @@
       <c r="B240" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C240" s="6">
+      <c r="C240" s="5">
         <v>45047</v>
       </c>
-      <c r="D240" s="4">
+      <c r="D240" s="6">
         <v>1727</v>
       </c>
     </row>
@@ -4009,10 +4009,10 @@
       <c r="B241" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C241" s="6">
+      <c r="C241" s="5">
         <v>45047</v>
       </c>
-      <c r="D241" s="4">
+      <c r="D241" s="6">
         <v>1122</v>
       </c>
     </row>
@@ -4023,10 +4023,10 @@
       <c r="B242" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C242" s="6">
+      <c r="C242" s="5">
         <v>45047</v>
       </c>
-      <c r="D242" s="4">
+      <c r="D242" s="6">
         <v>13557</v>
       </c>
     </row>
@@ -4037,10 +4037,10 @@
       <c r="B243" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C243" s="6">
+      <c r="C243" s="5">
         <v>45047</v>
       </c>
-      <c r="D243" s="4">
+      <c r="D243" s="6">
         <v>22534</v>
       </c>
     </row>
@@ -4051,10 +4051,10 @@
       <c r="B244" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C244" s="6">
+      <c r="C244" s="5">
         <v>45047</v>
       </c>
-      <c r="D244" s="4">
+      <c r="D244" s="6">
         <v>4092</v>
       </c>
     </row>
@@ -4065,10 +4065,10 @@
       <c r="B245" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C245" s="6">
+      <c r="C245" s="5">
         <v>45047</v>
       </c>
-      <c r="D245" s="4">
+      <c r="D245" s="6">
         <v>6631</v>
       </c>
     </row>
@@ -4079,10 +4079,10 @@
       <c r="B246" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C246" s="6">
+      <c r="C246" s="5">
         <v>45047</v>
       </c>
-      <c r="D246" s="4">
+      <c r="D246" s="6">
         <v>1210</v>
       </c>
     </row>
@@ -4093,10 +4093,10 @@
       <c r="B247" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C247" s="6">
+      <c r="C247" s="5">
         <v>45047</v>
       </c>
-      <c r="D247" s="4">
+      <c r="D247" s="6">
         <v>1777</v>
       </c>
     </row>
@@ -4107,10 +4107,10 @@
       <c r="B248" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C248" s="6">
+      <c r="C248" s="5">
         <v>45047</v>
       </c>
-      <c r="D248" s="4">
+      <c r="D248" s="6">
         <v>3966</v>
       </c>
     </row>
@@ -4121,10 +4121,10 @@
       <c r="B249" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C249" s="6">
+      <c r="C249" s="5">
         <v>45047</v>
       </c>
-      <c r="D249" s="4">
+      <c r="D249" s="6">
         <v>3689</v>
       </c>
     </row>
@@ -4135,10 +4135,10 @@
       <c r="B250" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C250" s="6">
+      <c r="C250" s="5">
         <v>45047</v>
       </c>
-      <c r="D250" s="4">
+      <c r="D250" s="6">
         <v>1585</v>
       </c>
     </row>
@@ -4149,10 +4149,10 @@
       <c r="B251" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C251" s="6">
+      <c r="C251" s="5">
         <v>45047</v>
       </c>
-      <c r="D251" s="4">
+      <c r="D251" s="6">
         <v>5383</v>
       </c>
     </row>
@@ -4163,10 +4163,10 @@
       <c r="B252" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C252" s="6">
+      <c r="C252" s="5">
         <v>45047</v>
       </c>
-      <c r="D252" s="4">
+      <c r="D252" s="6">
         <v>30608</v>
       </c>
     </row>
@@ -4177,10 +4177,10 @@
       <c r="B253" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C253" s="6">
+      <c r="C253" s="5">
         <v>45047</v>
       </c>
-      <c r="D253" s="4">
+      <c r="D253" s="6">
         <v>13650</v>
       </c>
     </row>
@@ -4191,10 +4191,10 @@
       <c r="B254" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C254" s="6">
+      <c r="C254" s="5">
         <v>45047</v>
       </c>
-      <c r="D254" s="4">
+      <c r="D254" s="6">
         <v>79700</v>
       </c>
     </row>
@@ -4205,10 +4205,10 @@
       <c r="B255" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C255" s="6">
+      <c r="C255" s="5">
         <v>45047</v>
       </c>
-      <c r="D255" s="4">
+      <c r="D255" s="6">
         <v>11146</v>
       </c>
     </row>
@@ -4219,10 +4219,10 @@
       <c r="B256" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C256" s="6">
+      <c r="C256" s="5">
         <v>45047</v>
       </c>
-      <c r="D256" s="4">
+      <c r="D256" s="6">
         <v>3227</v>
       </c>
     </row>
@@ -4233,10 +4233,10 @@
       <c r="B257" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C257" s="6">
+      <c r="C257" s="5">
         <v>45047</v>
       </c>
-      <c r="D257" s="4">
+      <c r="D257" s="6">
         <v>253</v>
       </c>
     </row>
@@ -4247,10 +4247,10 @@
       <c r="B258" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C258" s="6">
+      <c r="C258" s="5">
         <v>45047</v>
       </c>
-      <c r="D258" s="4">
+      <c r="D258" s="6">
         <v>363</v>
       </c>
     </row>
@@ -4261,10 +4261,10 @@
       <c r="B259" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C259" s="6">
+      <c r="C259" s="5">
         <v>45047</v>
       </c>
-      <c r="D259" s="4">
+      <c r="D259" s="6">
         <v>1823</v>
       </c>
     </row>
@@ -4275,10 +4275,10 @@
       <c r="B260" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C260" s="6">
+      <c r="C260" s="5">
         <v>45047</v>
       </c>
-      <c r="D260" s="4">
+      <c r="D260" s="6">
         <v>2076</v>
       </c>
     </row>
@@ -4289,10 +4289,10 @@
       <c r="B261" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C261" s="6">
+      <c r="C261" s="5">
         <v>45047</v>
       </c>
-      <c r="D261" s="4">
+      <c r="D261" s="6">
         <v>45</v>
       </c>
     </row>
@@ -4303,10 +4303,10 @@
       <c r="B262" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C262" s="6">
+      <c r="C262" s="5">
         <v>45078</v>
       </c>
-      <c r="D262" s="4">
+      <c r="D262" s="6">
         <v>4121</v>
       </c>
     </row>
@@ -4317,10 +4317,10 @@
       <c r="B263" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C263" s="6">
+      <c r="C263" s="5">
         <v>45078</v>
       </c>
-      <c r="D263" s="4">
+      <c r="D263" s="6">
         <v>217052</v>
       </c>
     </row>
@@ -4331,10 +4331,10 @@
       <c r="B264" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C264" s="6">
+      <c r="C264" s="5">
         <v>45078</v>
       </c>
-      <c r="D264" s="4">
+      <c r="D264" s="6">
         <v>85945</v>
       </c>
     </row>
@@ -4345,10 +4345,10 @@
       <c r="B265" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C265" s="6">
+      <c r="C265" s="5">
         <v>45078</v>
       </c>
-      <c r="D265" s="4">
+      <c r="D265" s="6">
         <v>9877</v>
       </c>
     </row>
@@ -4359,10 +4359,10 @@
       <c r="B266" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C266" s="6">
+      <c r="C266" s="5">
         <v>45078</v>
       </c>
-      <c r="D266" s="4">
+      <c r="D266" s="6">
         <v>71409</v>
       </c>
     </row>
@@ -4373,10 +4373,10 @@
       <c r="B267" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C267" s="6">
+      <c r="C267" s="5">
         <v>45078</v>
       </c>
-      <c r="D267" s="4">
+      <c r="D267" s="6">
         <v>31029</v>
       </c>
     </row>
@@ -4387,10 +4387,10 @@
       <c r="B268" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C268" s="6">
+      <c r="C268" s="5">
         <v>45078</v>
       </c>
-      <c r="D268" s="4">
+      <c r="D268" s="6">
         <v>48924</v>
       </c>
     </row>
@@ -4401,10 +4401,10 @@
       <c r="B269" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C269" s="6">
+      <c r="C269" s="5">
         <v>45078</v>
       </c>
-      <c r="D269" s="4">
+      <c r="D269" s="6">
         <v>7457</v>
       </c>
     </row>
@@ -4415,10 +4415,10 @@
       <c r="B270" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C270" s="6">
+      <c r="C270" s="5">
         <v>45078</v>
       </c>
-      <c r="D270" s="4">
+      <c r="D270" s="6">
         <v>113290</v>
       </c>
     </row>
@@ -4429,10 +4429,10 @@
       <c r="B271" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C271" s="6">
+      <c r="C271" s="5">
         <v>45078</v>
       </c>
-      <c r="D271" s="4">
+      <c r="D271" s="6">
         <v>23179</v>
       </c>
     </row>
@@ -4443,10 +4443,10 @@
       <c r="B272" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C272" s="6">
+      <c r="C272" s="5">
         <v>45078</v>
       </c>
-      <c r="D272" s="4">
+      <c r="D272" s="6">
         <v>28980</v>
       </c>
     </row>
@@ -4457,10 +4457,10 @@
       <c r="B273" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C273" s="6">
+      <c r="C273" s="5">
         <v>45078</v>
       </c>
-      <c r="D273" s="4">
+      <c r="D273" s="6">
         <v>1779</v>
       </c>
     </row>
@@ -4471,10 +4471,10 @@
       <c r="B274" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C274" s="6">
+      <c r="C274" s="5">
         <v>45078</v>
       </c>
-      <c r="D274" s="4">
+      <c r="D274" s="6">
         <v>25370</v>
       </c>
     </row>
@@ -4485,10 +4485,10 @@
       <c r="B275" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="6">
+      <c r="C275" s="5">
         <v>45078</v>
       </c>
-      <c r="D275" s="4">
+      <c r="D275" s="6">
         <v>40187</v>
       </c>
     </row>
@@ -4499,10 +4499,10 @@
       <c r="B276" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="6">
+      <c r="C276" s="5">
         <v>45078</v>
       </c>
-      <c r="D276" s="4">
+      <c r="D276" s="6">
         <v>91</v>
       </c>
     </row>
@@ -4513,10 +4513,10 @@
       <c r="B277" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C277" s="6">
+      <c r="C277" s="5">
         <v>45078</v>
       </c>
-      <c r="D277" s="4">
+      <c r="D277" s="6">
         <v>9685</v>
       </c>
     </row>
@@ -4527,10 +4527,10 @@
       <c r="B278" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C278" s="6">
+      <c r="C278" s="5">
         <v>45078</v>
       </c>
-      <c r="D278" s="4">
+      <c r="D278" s="6">
         <v>114588</v>
       </c>
     </row>
@@ -4541,10 +4541,10 @@
       <c r="B279" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C279" s="6">
+      <c r="C279" s="5">
         <v>45078</v>
       </c>
-      <c r="D279" s="4">
+      <c r="D279" s="6">
         <v>1724</v>
       </c>
     </row>
@@ -4555,10 +4555,10 @@
       <c r="B280" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C280" s="6">
+      <c r="C280" s="5">
         <v>45078</v>
       </c>
-      <c r="D280" s="4">
+      <c r="D280" s="6">
         <v>4368</v>
       </c>
     </row>
@@ -4569,10 +4569,10 @@
       <c r="B281" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C281" s="6">
+      <c r="C281" s="5">
         <v>45078</v>
       </c>
-      <c r="D281" s="4">
+      <c r="D281" s="6">
         <v>3001</v>
       </c>
     </row>
@@ -4583,10 +4583,10 @@
       <c r="B282" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C282" s="6">
+      <c r="C282" s="5">
         <v>45078</v>
       </c>
-      <c r="D282" s="4">
+      <c r="D282" s="6">
         <v>322</v>
       </c>
     </row>
@@ -4597,10 +4597,10 @@
       <c r="B283" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C283" s="6">
+      <c r="C283" s="5">
         <v>45078</v>
       </c>
-      <c r="D283" s="4">
+      <c r="D283" s="6">
         <v>1012</v>
       </c>
     </row>
@@ -4611,10 +4611,10 @@
       <c r="B284" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C284" s="6">
+      <c r="C284" s="5">
         <v>45078</v>
       </c>
-      <c r="D284" s="4">
+      <c r="D284" s="6">
         <v>967</v>
       </c>
     </row>
@@ -4625,10 +4625,10 @@
       <c r="B285" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C285" s="6">
+      <c r="C285" s="5">
         <v>45078</v>
       </c>
-      <c r="D285" s="4">
+      <c r="D285" s="6">
         <v>2965</v>
       </c>
     </row>
@@ -4639,10 +4639,10 @@
       <c r="B286" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C286" s="6">
+      <c r="C286" s="5">
         <v>45078</v>
       </c>
-      <c r="D286" s="4">
+      <c r="D286" s="6">
         <v>7525</v>
       </c>
     </row>
@@ -4653,10 +4653,10 @@
       <c r="B287" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C287" s="6">
+      <c r="C287" s="5">
         <v>45078</v>
       </c>
-      <c r="D287" s="4">
+      <c r="D287" s="6">
         <v>3015</v>
       </c>
     </row>
@@ -4667,10 +4667,10 @@
       <c r="B288" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C288" s="6">
+      <c r="C288" s="5">
         <v>45078</v>
       </c>
-      <c r="D288" s="4">
+      <c r="D288" s="6">
         <v>6664</v>
       </c>
     </row>
@@ -4681,10 +4681,10 @@
       <c r="B289" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C289" s="6">
+      <c r="C289" s="5">
         <v>45078</v>
       </c>
-      <c r="D289" s="4">
+      <c r="D289" s="6">
         <v>59074</v>
       </c>
     </row>
@@ -4695,10 +4695,10 @@
       <c r="B290" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C290" s="6">
+      <c r="C290" s="5">
         <v>45078</v>
       </c>
-      <c r="D290" s="4">
+      <c r="D290" s="6">
         <v>4623</v>
       </c>
     </row>
@@ -4709,10 +4709,10 @@
       <c r="B291" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C291" s="6">
+      <c r="C291" s="5">
         <v>45078</v>
       </c>
-      <c r="D291" s="4">
+      <c r="D291" s="6">
         <v>1646</v>
       </c>
     </row>
@@ -4723,10 +4723,10 @@
       <c r="B292" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C292" s="6">
+      <c r="C292" s="5">
         <v>45078</v>
       </c>
-      <c r="D292" s="4">
+      <c r="D292" s="6">
         <v>1499</v>
       </c>
     </row>
@@ -4737,10 +4737,10 @@
       <c r="B293" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C293" s="6">
+      <c r="C293" s="5">
         <v>45078</v>
       </c>
-      <c r="D293" s="4">
+      <c r="D293" s="6">
         <v>1221</v>
       </c>
     </row>
@@ -4751,10 +4751,10 @@
       <c r="B294" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C294" s="6">
+      <c r="C294" s="5">
         <v>45078</v>
       </c>
-      <c r="D294" s="4">
+      <c r="D294" s="6">
         <v>9709</v>
       </c>
     </row>
@@ -4765,10 +4765,10 @@
       <c r="B295" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C295" s="6">
+      <c r="C295" s="5">
         <v>45078</v>
       </c>
-      <c r="D295" s="4">
+      <c r="D295" s="6">
         <v>15026</v>
       </c>
     </row>
@@ -4779,10 +4779,10 @@
       <c r="B296" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C296" s="6">
+      <c r="C296" s="5">
         <v>45078</v>
       </c>
-      <c r="D296" s="4">
+      <c r="D296" s="6">
         <v>3426</v>
       </c>
     </row>
@@ -4793,10 +4793,10 @@
       <c r="B297" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C297" s="6">
+      <c r="C297" s="5">
         <v>45078</v>
       </c>
-      <c r="D297" s="4">
+      <c r="D297" s="6">
         <v>5041</v>
       </c>
     </row>
@@ -4807,10 +4807,10 @@
       <c r="B298" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C298" s="6">
+      <c r="C298" s="5">
         <v>45078</v>
       </c>
-      <c r="D298" s="4">
+      <c r="D298" s="6">
         <v>1831</v>
       </c>
     </row>
@@ -4821,10 +4821,10 @@
       <c r="B299" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C299" s="6">
+      <c r="C299" s="5">
         <v>45078</v>
       </c>
-      <c r="D299" s="4">
+      <c r="D299" s="6">
         <v>1626</v>
       </c>
     </row>
@@ -4835,10 +4835,10 @@
       <c r="B300" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C300" s="6">
+      <c r="C300" s="5">
         <v>45078</v>
       </c>
-      <c r="D300" s="4">
+      <c r="D300" s="6">
         <v>2796</v>
       </c>
     </row>
@@ -4849,10 +4849,10 @@
       <c r="B301" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C301" s="6">
+      <c r="C301" s="5">
         <v>45078</v>
       </c>
-      <c r="D301" s="4">
+      <c r="D301" s="6">
         <v>3562</v>
       </c>
     </row>
@@ -4863,10 +4863,10 @@
       <c r="B302" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C302" s="6">
+      <c r="C302" s="5">
         <v>45078</v>
       </c>
-      <c r="D302" s="4">
+      <c r="D302" s="6">
         <v>1538</v>
       </c>
     </row>
@@ -4877,10 +4877,10 @@
       <c r="B303" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C303" s="6">
+      <c r="C303" s="5">
         <v>45078</v>
       </c>
-      <c r="D303" s="4">
+      <c r="D303" s="6">
         <v>3991</v>
       </c>
     </row>
@@ -4891,10 +4891,10 @@
       <c r="B304" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C304" s="6">
+      <c r="C304" s="5">
         <v>45078</v>
       </c>
-      <c r="D304" s="4">
+      <c r="D304" s="6">
         <v>24244</v>
       </c>
     </row>
@@ -4905,10 +4905,10 @@
       <c r="B305" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C305" s="6">
+      <c r="C305" s="5">
         <v>45078</v>
       </c>
-      <c r="D305" s="4">
+      <c r="D305" s="6">
         <v>11381</v>
       </c>
     </row>
@@ -4919,10 +4919,10 @@
       <c r="B306" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C306" s="6">
+      <c r="C306" s="5">
         <v>45078</v>
       </c>
-      <c r="D306" s="4">
+      <c r="D306" s="6">
         <v>90770</v>
       </c>
     </row>
@@ -4933,10 +4933,10 @@
       <c r="B307" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C307" s="6">
+      <c r="C307" s="5">
         <v>45078</v>
       </c>
-      <c r="D307" s="4">
+      <c r="D307" s="6">
         <v>13352</v>
       </c>
     </row>
@@ -4947,10 +4947,10 @@
       <c r="B308" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C308" s="6">
+      <c r="C308" s="5">
         <v>45078</v>
       </c>
-      <c r="D308" s="4">
+      <c r="D308" s="6">
         <v>3793</v>
       </c>
     </row>
@@ -4961,10 +4961,10 @@
       <c r="B309" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C309" s="6">
+      <c r="C309" s="5">
         <v>45078</v>
       </c>
-      <c r="D309" s="4">
+      <c r="D309" s="6">
         <v>211</v>
       </c>
     </row>
@@ -4975,10 +4975,10 @@
       <c r="B310" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C310" s="6">
+      <c r="C310" s="5">
         <v>45078</v>
       </c>
-      <c r="D310" s="4">
+      <c r="D310" s="6">
         <v>349</v>
       </c>
     </row>
@@ -4989,10 +4989,10 @@
       <c r="B311" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C311" s="6">
+      <c r="C311" s="5">
         <v>45078</v>
       </c>
-      <c r="D311" s="4">
+      <c r="D311" s="6">
         <v>1946</v>
       </c>
     </row>
@@ -5003,10 +5003,10 @@
       <c r="B312" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C312" s="6">
+      <c r="C312" s="5">
         <v>45078</v>
       </c>
-      <c r="D312" s="4">
+      <c r="D312" s="6">
         <v>2069</v>
       </c>
     </row>
@@ -5017,10 +5017,10 @@
       <c r="B313" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C313" s="6">
+      <c r="C313" s="5">
         <v>45078</v>
       </c>
-      <c r="D313" s="4">
+      <c r="D313" s="6">
         <v>60</v>
       </c>
     </row>
@@ -5031,10 +5031,10 @@
       <c r="B314" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C314" s="6">
+      <c r="C314" s="5">
         <v>45108</v>
       </c>
-      <c r="D314" s="4">
+      <c r="D314" s="6">
         <v>5108</v>
       </c>
     </row>
@@ -5045,10 +5045,10 @@
       <c r="B315" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C315" s="6">
+      <c r="C315" s="5">
         <v>45108</v>
       </c>
-      <c r="D315" s="4">
+      <c r="D315" s="6">
         <v>229886</v>
       </c>
     </row>
@@ -5059,10 +5059,10 @@
       <c r="B316" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C316" s="6">
+      <c r="C316" s="5">
         <v>45108</v>
       </c>
-      <c r="D316" s="4">
+      <c r="D316" s="6">
         <v>84876</v>
       </c>
     </row>
@@ -5073,10 +5073,10 @@
       <c r="B317" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C317" s="6">
+      <c r="C317" s="5">
         <v>45108</v>
       </c>
-      <c r="D317" s="4">
+      <c r="D317" s="6">
         <v>10811</v>
       </c>
     </row>
@@ -5087,10 +5087,10 @@
       <c r="B318" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C318" s="6">
+      <c r="C318" s="5">
         <v>45108</v>
       </c>
-      <c r="D318" s="4">
+      <c r="D318" s="6">
         <v>77160</v>
       </c>
     </row>
@@ -5101,10 +5101,10 @@
       <c r="B319" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C319" s="6">
+      <c r="C319" s="5">
         <v>45108</v>
       </c>
-      <c r="D319" s="4">
+      <c r="D319" s="6">
         <v>41367</v>
       </c>
     </row>
@@ -5115,10 +5115,10 @@
       <c r="B320" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C320" s="6">
+      <c r="C320" s="5">
         <v>45108</v>
       </c>
-      <c r="D320" s="4">
+      <c r="D320" s="6">
         <v>60188</v>
       </c>
     </row>
@@ -5129,10 +5129,10 @@
       <c r="B321" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C321" s="6">
+      <c r="C321" s="5">
         <v>45108</v>
       </c>
-      <c r="D321" s="4">
+      <c r="D321" s="6">
         <v>9640</v>
       </c>
     </row>
@@ -5143,10 +5143,10 @@
       <c r="B322" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C322" s="6">
+      <c r="C322" s="5">
         <v>45108</v>
       </c>
-      <c r="D322" s="4">
+      <c r="D322" s="6">
         <v>231331</v>
       </c>
     </row>
@@ -5157,10 +5157,10 @@
       <c r="B323" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C323" s="6">
+      <c r="C323" s="5">
         <v>45108</v>
       </c>
-      <c r="D323" s="4">
+      <c r="D323" s="6">
         <v>32175</v>
       </c>
     </row>
@@ -5171,10 +5171,10 @@
       <c r="B324" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C324" s="6">
+      <c r="C324" s="5">
         <v>45108</v>
       </c>
-      <c r="D324" s="4">
+      <c r="D324" s="6">
         <v>43097</v>
       </c>
     </row>
@@ -5185,10 +5185,10 @@
       <c r="B325" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C325" s="6">
+      <c r="C325" s="5">
         <v>45108</v>
       </c>
-      <c r="D325" s="4">
+      <c r="D325" s="6">
         <v>3266</v>
       </c>
     </row>
@@ -5199,10 +5199,10 @@
       <c r="B326" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C326" s="6">
+      <c r="C326" s="5">
         <v>45108</v>
       </c>
-      <c r="D326" s="4">
+      <c r="D326" s="6">
         <v>42730</v>
       </c>
     </row>
@@ -5213,10 +5213,10 @@
       <c r="B327" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C327" s="6">
+      <c r="C327" s="5">
         <v>45108</v>
       </c>
-      <c r="D327" s="4">
+      <c r="D327" s="6">
         <v>60960</v>
       </c>
     </row>
@@ -5227,10 +5227,10 @@
       <c r="B328" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C328" s="6">
+      <c r="C328" s="5">
         <v>45108</v>
       </c>
-      <c r="D328" s="4">
+      <c r="D328" s="6">
         <v>171</v>
       </c>
     </row>
@@ -5241,10 +5241,10 @@
       <c r="B329" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C329" s="6">
+      <c r="C329" s="5">
         <v>45108</v>
       </c>
-      <c r="D329" s="4">
+      <c r="D329" s="6">
         <v>11100</v>
       </c>
     </row>
@@ -5255,10 +5255,10 @@
       <c r="B330" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C330" s="6">
+      <c r="C330" s="5">
         <v>45108</v>
       </c>
-      <c r="D330" s="4">
+      <c r="D330" s="6">
         <v>93056</v>
       </c>
     </row>
@@ -5269,10 +5269,10 @@
       <c r="B331" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C331" s="6">
+      <c r="C331" s="5">
         <v>45108</v>
       </c>
-      <c r="D331" s="4">
+      <c r="D331" s="6">
         <v>2654</v>
       </c>
     </row>
@@ -5283,10 +5283,10 @@
       <c r="B332" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C332" s="6">
+      <c r="C332" s="5">
         <v>45108</v>
       </c>
-      <c r="D332" s="4">
+      <c r="D332" s="6">
         <v>4509</v>
       </c>
     </row>
@@ -5297,10 +5297,10 @@
       <c r="B333" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C333" s="6">
+      <c r="C333" s="5">
         <v>45108</v>
       </c>
-      <c r="D333" s="4">
+      <c r="D333" s="6">
         <v>3414</v>
       </c>
     </row>
@@ -5311,10 +5311,10 @@
       <c r="B334" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C334" s="6">
+      <c r="C334" s="5">
         <v>45108</v>
       </c>
-      <c r="D334" s="4">
+      <c r="D334" s="6">
         <v>298</v>
       </c>
     </row>
@@ -5325,10 +5325,10 @@
       <c r="B335" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C335" s="6">
+      <c r="C335" s="5">
         <v>45108</v>
       </c>
-      <c r="D335" s="4">
+      <c r="D335" s="6">
         <v>1596</v>
       </c>
     </row>
@@ -5339,10 +5339,10 @@
       <c r="B336" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C336" s="6">
+      <c r="C336" s="5">
         <v>45108</v>
       </c>
-      <c r="D336" s="4">
+      <c r="D336" s="6">
         <v>1511</v>
       </c>
     </row>
@@ -5353,10 +5353,10 @@
       <c r="B337" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C337" s="6">
+      <c r="C337" s="5">
         <v>45108</v>
       </c>
-      <c r="D337" s="4">
+      <c r="D337" s="6">
         <v>5249</v>
       </c>
     </row>
@@ -5367,10 +5367,10 @@
       <c r="B338" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C338" s="6">
+      <c r="C338" s="5">
         <v>45108</v>
       </c>
-      <c r="D338" s="4">
+      <c r="D338" s="6">
         <v>9793</v>
       </c>
     </row>
@@ -5381,10 +5381,10 @@
       <c r="B339" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C339" s="6">
+      <c r="C339" s="5">
         <v>45108</v>
       </c>
-      <c r="D339" s="4">
+      <c r="D339" s="6">
         <v>4326</v>
       </c>
     </row>
@@ -5395,10 +5395,10 @@
       <c r="B340" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C340" s="6">
+      <c r="C340" s="5">
         <v>45108</v>
       </c>
-      <c r="D340" s="4">
+      <c r="D340" s="6">
         <v>9770</v>
       </c>
     </row>
@@ -5409,10 +5409,10 @@
       <c r="B341" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C341" s="6">
+      <c r="C341" s="5">
         <v>45108</v>
       </c>
-      <c r="D341" s="4">
+      <c r="D341" s="6">
         <v>64786</v>
       </c>
     </row>
@@ -5423,10 +5423,10 @@
       <c r="B342" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C342" s="6">
+      <c r="C342" s="5">
         <v>45108</v>
       </c>
-      <c r="D342" s="4">
+      <c r="D342" s="6">
         <v>7081</v>
       </c>
     </row>
@@ -5437,10 +5437,10 @@
       <c r="B343" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C343" s="6">
+      <c r="C343" s="5">
         <v>45108</v>
       </c>
-      <c r="D343" s="4">
+      <c r="D343" s="6">
         <v>3995</v>
       </c>
     </row>
@@ -5451,10 +5451,10 @@
       <c r="B344" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C344" s="6">
+      <c r="C344" s="5">
         <v>45108</v>
       </c>
-      <c r="D344" s="4">
+      <c r="D344" s="6">
         <v>2881</v>
       </c>
     </row>
@@ -5465,10 +5465,10 @@
       <c r="B345" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C345" s="6">
+      <c r="C345" s="5">
         <v>45108</v>
       </c>
-      <c r="D345" s="4">
+      <c r="D345" s="6">
         <v>1062</v>
       </c>
     </row>
@@ -5479,10 +5479,10 @@
       <c r="B346" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C346" s="6">
+      <c r="C346" s="5">
         <v>45108</v>
       </c>
-      <c r="D346" s="4">
+      <c r="D346" s="6">
         <v>18158</v>
       </c>
     </row>
@@ -5493,10 +5493,10 @@
       <c r="B347" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C347" s="6">
+      <c r="C347" s="5">
         <v>45108</v>
       </c>
-      <c r="D347" s="4">
+      <c r="D347" s="6">
         <v>21074</v>
       </c>
     </row>
@@ -5507,10 +5507,10 @@
       <c r="B348" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C348" s="6">
+      <c r="C348" s="5">
         <v>45108</v>
       </c>
-      <c r="D348" s="4">
+      <c r="D348" s="6">
         <v>6965</v>
       </c>
     </row>
@@ -5521,10 +5521,10 @@
       <c r="B349" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C349" s="6">
+      <c r="C349" s="5">
         <v>45108</v>
       </c>
-      <c r="D349" s="4">
+      <c r="D349" s="6">
         <v>10867</v>
       </c>
     </row>
@@ -5535,10 +5535,10 @@
       <c r="B350" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C350" s="6">
+      <c r="C350" s="5">
         <v>45108</v>
       </c>
-      <c r="D350" s="4">
+      <c r="D350" s="6">
         <v>3585</v>
       </c>
     </row>
@@ -5549,10 +5549,10 @@
       <c r="B351" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C351" s="6">
+      <c r="C351" s="5">
         <v>45108</v>
       </c>
-      <c r="D351" s="4">
+      <c r="D351" s="6">
         <v>2344</v>
       </c>
     </row>
@@ -5563,10 +5563,10 @@
       <c r="B352" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C352" s="6">
+      <c r="C352" s="5">
         <v>45108</v>
       </c>
-      <c r="D352" s="4">
+      <c r="D352" s="6">
         <v>3627</v>
       </c>
     </row>
@@ -5577,10 +5577,10 @@
       <c r="B353" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C353" s="6">
+      <c r="C353" s="5">
         <v>45108</v>
       </c>
-      <c r="D353" s="4">
+      <c r="D353" s="6">
         <v>5983</v>
       </c>
     </row>
@@ -5591,10 +5591,10 @@
       <c r="B354" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C354" s="6">
+      <c r="C354" s="5">
         <v>45108</v>
       </c>
-      <c r="D354" s="4">
+      <c r="D354" s="6">
         <v>1930</v>
       </c>
     </row>
@@ -5605,10 +5605,10 @@
       <c r="B355" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C355" s="6">
+      <c r="C355" s="5">
         <v>45108</v>
       </c>
-      <c r="D355" s="4">
+      <c r="D355" s="6">
         <v>8501</v>
       </c>
     </row>
@@ -5619,10 +5619,10 @@
       <c r="B356" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C356" s="6">
+      <c r="C356" s="5">
         <v>45108</v>
       </c>
-      <c r="D356" s="4">
+      <c r="D356" s="6">
         <v>36886</v>
       </c>
     </row>
@@ -5633,10 +5633,10 @@
       <c r="B357" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C357" s="6">
+      <c r="C357" s="5">
         <v>45108</v>
       </c>
-      <c r="D357" s="4">
+      <c r="D357" s="6">
         <v>16968</v>
       </c>
     </row>
@@ -5647,10 +5647,10 @@
       <c r="B358" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C358" s="6">
+      <c r="C358" s="5">
         <v>45108</v>
       </c>
-      <c r="D358" s="4">
+      <c r="D358" s="6">
         <v>98408</v>
       </c>
     </row>
@@ -5661,10 +5661,10 @@
       <c r="B359" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C359" s="6">
+      <c r="C359" s="5">
         <v>45108</v>
       </c>
-      <c r="D359" s="4">
+      <c r="D359" s="6">
         <v>15350</v>
       </c>
     </row>
@@ -5675,10 +5675,10 @@
       <c r="B360" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C360" s="6">
+      <c r="C360" s="5">
         <v>45108</v>
       </c>
-      <c r="D360" s="4">
+      <c r="D360" s="6">
         <v>3119</v>
       </c>
     </row>
@@ -5689,10 +5689,10 @@
       <c r="B361" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C361" s="6">
+      <c r="C361" s="5">
         <v>45108</v>
       </c>
-      <c r="D361" s="4">
+      <c r="D361" s="6">
         <v>348</v>
       </c>
     </row>
@@ -5703,10 +5703,10 @@
       <c r="B362" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C362" s="6">
+      <c r="C362" s="5">
         <v>45108</v>
       </c>
-      <c r="D362" s="4">
+      <c r="D362" s="6">
         <v>413</v>
       </c>
     </row>
@@ -5717,10 +5717,10 @@
       <c r="B363" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C363" s="6">
+      <c r="C363" s="5">
         <v>45108</v>
       </c>
-      <c r="D363" s="4">
+      <c r="D363" s="6">
         <v>2166</v>
       </c>
     </row>
@@ -5731,10 +5731,10 @@
       <c r="B364" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C364" s="6">
+      <c r="C364" s="5">
         <v>45108</v>
       </c>
-      <c r="D364" s="4">
+      <c r="D364" s="6">
         <v>2999</v>
       </c>
     </row>
@@ -5745,10 +5745,10 @@
       <c r="B365" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C365" s="6">
+      <c r="C365" s="5">
         <v>45108</v>
       </c>
-      <c r="D365" s="4">
+      <c r="D365" s="6">
         <v>104</v>
       </c>
     </row>
@@ -5759,10 +5759,10 @@
       <c r="B366" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C366" s="6">
+      <c r="C366" s="5">
         <v>45139</v>
       </c>
-      <c r="D366" s="4">
+      <c r="D366" s="6">
         <v>6214</v>
       </c>
     </row>
@@ -5773,10 +5773,10 @@
       <c r="B367" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C367" s="6">
+      <c r="C367" s="5">
         <v>45139</v>
       </c>
-      <c r="D367" s="4">
+      <c r="D367" s="6">
         <v>168122</v>
       </c>
     </row>
@@ -5787,10 +5787,10 @@
       <c r="B368" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C368" s="6">
+      <c r="C368" s="5">
         <v>45139</v>
       </c>
-      <c r="D368" s="4">
+      <c r="D368" s="6">
         <v>88044</v>
       </c>
     </row>
@@ -5801,10 +5801,10 @@
       <c r="B369" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C369" s="6">
+      <c r="C369" s="5">
         <v>45139</v>
       </c>
-      <c r="D369" s="4">
+      <c r="D369" s="6">
         <v>10159</v>
       </c>
     </row>
@@ -5815,10 +5815,10 @@
       <c r="B370" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C370" s="6">
+      <c r="C370" s="5">
         <v>45139</v>
       </c>
-      <c r="D370" s="4">
+      <c r="D370" s="6">
         <v>61802</v>
       </c>
     </row>
@@ -5829,10 +5829,10 @@
       <c r="B371" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C371" s="6">
+      <c r="C371" s="5">
         <v>45139</v>
       </c>
-      <c r="D371" s="4">
+      <c r="D371" s="6">
         <v>34938</v>
       </c>
     </row>
@@ -5843,10 +5843,10 @@
       <c r="B372" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C372" s="6">
+      <c r="C372" s="5">
         <v>45139</v>
       </c>
-      <c r="D372" s="4">
+      <c r="D372" s="6">
         <v>51381</v>
       </c>
     </row>
@@ -5857,10 +5857,10 @@
       <c r="B373" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C373" s="6">
+      <c r="C373" s="5">
         <v>45139</v>
       </c>
-      <c r="D373" s="4">
+      <c r="D373" s="6">
         <v>8992</v>
       </c>
     </row>
@@ -5871,10 +5871,10 @@
       <c r="B374" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C374" s="6">
+      <c r="C374" s="5">
         <v>45139</v>
       </c>
-      <c r="D374" s="4">
+      <c r="D374" s="6">
         <v>215442</v>
       </c>
     </row>
@@ -5885,10 +5885,10 @@
       <c r="B375" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C375" s="6">
+      <c r="C375" s="5">
         <v>45139</v>
       </c>
-      <c r="D375" s="4">
+      <c r="D375" s="6">
         <v>32627</v>
       </c>
     </row>
@@ -5899,10 +5899,10 @@
       <c r="B376" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C376" s="6">
+      <c r="C376" s="5">
         <v>45139</v>
       </c>
-      <c r="D376" s="4">
+      <c r="D376" s="6">
         <v>38432</v>
       </c>
     </row>
@@ -5913,10 +5913,10 @@
       <c r="B377" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C377" s="6">
+      <c r="C377" s="5">
         <v>45139</v>
       </c>
-      <c r="D377" s="4">
+      <c r="D377" s="6">
         <v>3316</v>
       </c>
     </row>
@@ -5927,10 +5927,10 @@
       <c r="B378" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C378" s="6">
+      <c r="C378" s="5">
         <v>45139</v>
       </c>
-      <c r="D378" s="4">
+      <c r="D378" s="6">
         <v>68304</v>
       </c>
     </row>
@@ -5941,10 +5941,10 @@
       <c r="B379" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C379" s="6">
+      <c r="C379" s="5">
         <v>45139</v>
       </c>
-      <c r="D379" s="4">
+      <c r="D379" s="6">
         <v>62177</v>
       </c>
     </row>
@@ -5955,10 +5955,10 @@
       <c r="B380" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C380" s="6">
+      <c r="C380" s="5">
         <v>45139</v>
       </c>
-      <c r="D380" s="4">
+      <c r="D380" s="6">
         <v>185</v>
       </c>
     </row>
@@ -5969,10 +5969,10 @@
       <c r="B381" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C381" s="6">
+      <c r="C381" s="5">
         <v>45139</v>
       </c>
-      <c r="D381" s="4">
+      <c r="D381" s="6">
         <v>11124</v>
       </c>
     </row>
@@ -5983,10 +5983,10 @@
       <c r="B382" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C382" s="6">
+      <c r="C382" s="5">
         <v>45139</v>
       </c>
-      <c r="D382" s="4">
+      <c r="D382" s="6">
         <v>83601</v>
       </c>
     </row>
@@ -5997,10 +5997,10 @@
       <c r="B383" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C383" s="6">
+      <c r="C383" s="5">
         <v>45139</v>
       </c>
-      <c r="D383" s="4">
+      <c r="D383" s="6">
         <v>1497</v>
       </c>
     </row>
@@ -6011,10 +6011,10 @@
       <c r="B384" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C384" s="6">
+      <c r="C384" s="5">
         <v>45139</v>
       </c>
-      <c r="D384" s="4">
+      <c r="D384" s="6">
         <v>5567</v>
       </c>
     </row>
@@ -6025,10 +6025,10 @@
       <c r="B385" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C385" s="6">
+      <c r="C385" s="5">
         <v>45139</v>
       </c>
-      <c r="D385" s="4">
+      <c r="D385" s="6">
         <v>2863</v>
       </c>
     </row>
@@ -6039,10 +6039,10 @@
       <c r="B386" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C386" s="6">
+      <c r="C386" s="5">
         <v>45139</v>
       </c>
-      <c r="D386" s="4">
+      <c r="D386" s="6">
         <v>406</v>
       </c>
     </row>
@@ -6053,10 +6053,10 @@
       <c r="B387" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C387" s="6">
+      <c r="C387" s="5">
         <v>45139</v>
       </c>
-      <c r="D387" s="4">
+      <c r="D387" s="6">
         <v>1669</v>
       </c>
     </row>
@@ -6067,10 +6067,10 @@
       <c r="B388" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C388" s="6">
+      <c r="C388" s="5">
         <v>45139</v>
       </c>
-      <c r="D388" s="4">
+      <c r="D388" s="6">
         <v>2157</v>
       </c>
     </row>
@@ -6081,10 +6081,10 @@
       <c r="B389" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C389" s="6">
+      <c r="C389" s="5">
         <v>45139</v>
       </c>
-      <c r="D389" s="4">
+      <c r="D389" s="6">
         <v>3123</v>
       </c>
     </row>
@@ -6095,10 +6095,10 @@
       <c r="B390" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C390" s="6">
+      <c r="C390" s="5">
         <v>45139</v>
       </c>
-      <c r="D390" s="4">
+      <c r="D390" s="6">
         <v>8749</v>
       </c>
     </row>
@@ -6109,10 +6109,10 @@
       <c r="B391" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C391" s="6">
+      <c r="C391" s="5">
         <v>45139</v>
       </c>
-      <c r="D391" s="4">
+      <c r="D391" s="6">
         <v>3686</v>
       </c>
     </row>
@@ -6123,10 +6123,10 @@
       <c r="B392" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C392" s="6">
+      <c r="C392" s="5">
         <v>45139</v>
       </c>
-      <c r="D392" s="4">
+      <c r="D392" s="6">
         <v>9877</v>
       </c>
     </row>
@@ -6137,10 +6137,10 @@
       <c r="B393" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C393" s="6">
+      <c r="C393" s="5">
         <v>45139</v>
       </c>
-      <c r="D393" s="4">
+      <c r="D393" s="6">
         <v>48489</v>
       </c>
     </row>
@@ -6151,10 +6151,10 @@
       <c r="B394" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C394" s="6">
+      <c r="C394" s="5">
         <v>45139</v>
       </c>
-      <c r="D394" s="4">
+      <c r="D394" s="6">
         <v>4630</v>
       </c>
     </row>
@@ -6165,10 +6165,10 @@
       <c r="B395" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C395" s="6">
+      <c r="C395" s="5">
         <v>45139</v>
       </c>
-      <c r="D395" s="4">
+      <c r="D395" s="6">
         <v>3466</v>
       </c>
     </row>
@@ -6179,10 +6179,10 @@
       <c r="B396" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C396" s="6">
+      <c r="C396" s="5">
         <v>45139</v>
       </c>
-      <c r="D396" s="4">
+      <c r="D396" s="6">
         <v>1703</v>
       </c>
     </row>
@@ -6193,10 +6193,10 @@
       <c r="B397" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C397" s="6">
+      <c r="C397" s="5">
         <v>45139</v>
       </c>
-      <c r="D397" s="4">
+      <c r="D397" s="6">
         <v>838</v>
       </c>
     </row>
@@ -6207,10 +6207,10 @@
       <c r="B398" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C398" s="6">
+      <c r="C398" s="5">
         <v>45139</v>
       </c>
-      <c r="D398" s="4">
+      <c r="D398" s="6">
         <v>24471</v>
       </c>
     </row>
@@ -6221,10 +6221,10 @@
       <c r="B399" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C399" s="6">
+      <c r="C399" s="5">
         <v>45139</v>
       </c>
-      <c r="D399" s="4">
+      <c r="D399" s="6">
         <v>24633</v>
       </c>
     </row>
@@ -6235,10 +6235,10 @@
       <c r="B400" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C400" s="6">
+      <c r="C400" s="5">
         <v>45139</v>
       </c>
-      <c r="D400" s="4">
+      <c r="D400" s="6">
         <v>20896</v>
       </c>
     </row>
@@ -6249,10 +6249,10 @@
       <c r="B401" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C401" s="6">
+      <c r="C401" s="5">
         <v>45139</v>
       </c>
-      <c r="D401" s="4">
+      <c r="D401" s="6">
         <v>11327</v>
       </c>
     </row>
@@ -6263,10 +6263,10 @@
       <c r="B402" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C402" s="6">
+      <c r="C402" s="5">
         <v>45139</v>
       </c>
-      <c r="D402" s="4">
+      <c r="D402" s="6">
         <v>1378</v>
       </c>
     </row>
@@ -6277,10 +6277,10 @@
       <c r="B403" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C403" s="6">
+      <c r="C403" s="5">
         <v>45139</v>
       </c>
-      <c r="D403" s="4">
+      <c r="D403" s="6">
         <v>1984</v>
       </c>
     </row>
@@ -6291,10 +6291,10 @@
       <c r="B404" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C404" s="6">
+      <c r="C404" s="5">
         <v>45139</v>
       </c>
-      <c r="D404" s="4">
+      <c r="D404" s="6">
         <v>3493</v>
       </c>
     </row>
@@ -6305,10 +6305,10 @@
       <c r="B405" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C405" s="6">
+      <c r="C405" s="5">
         <v>45139</v>
       </c>
-      <c r="D405" s="4">
+      <c r="D405" s="6">
         <v>10525</v>
       </c>
     </row>
@@ -6319,10 +6319,10 @@
       <c r="B406" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C406" s="6">
+      <c r="C406" s="5">
         <v>45139</v>
       </c>
-      <c r="D406" s="4">
+      <c r="D406" s="6">
         <v>1396</v>
       </c>
     </row>
@@ -6333,10 +6333,10 @@
       <c r="B407" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C407" s="6">
+      <c r="C407" s="5">
         <v>45139</v>
       </c>
-      <c r="D407" s="4">
+      <c r="D407" s="6">
         <v>6359</v>
       </c>
     </row>
@@ -6347,10 +6347,10 @@
       <c r="B408" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C408" s="6">
+      <c r="C408" s="5">
         <v>45139</v>
       </c>
-      <c r="D408" s="4">
+      <c r="D408" s="6">
         <v>41765</v>
       </c>
     </row>
@@ -6361,10 +6361,10 @@
       <c r="B409" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C409" s="6">
+      <c r="C409" s="5">
         <v>45139</v>
       </c>
-      <c r="D409" s="4">
+      <c r="D409" s="6">
         <v>18898</v>
       </c>
     </row>
@@ -6375,10 +6375,10 @@
       <c r="B410" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C410" s="6">
+      <c r="C410" s="5">
         <v>45139</v>
       </c>
-      <c r="D410" s="4">
+      <c r="D410" s="6">
         <v>80605</v>
       </c>
     </row>
@@ -6389,10 +6389,10 @@
       <c r="B411" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C411" s="6">
+      <c r="C411" s="5">
         <v>45139</v>
       </c>
-      <c r="D411" s="4">
+      <c r="D411" s="6">
         <v>12499</v>
       </c>
     </row>
@@ -6403,10 +6403,10 @@
       <c r="B412" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C412" s="6">
+      <c r="C412" s="5">
         <v>45139</v>
       </c>
-      <c r="D412" s="4">
+      <c r="D412" s="6">
         <v>2687</v>
       </c>
     </row>
@@ -6417,10 +6417,10 @@
       <c r="B413" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C413" s="6">
+      <c r="C413" s="5">
         <v>45139</v>
       </c>
-      <c r="D413" s="4">
+      <c r="D413" s="6">
         <v>243</v>
       </c>
     </row>
@@ -6431,10 +6431,10 @@
       <c r="B414" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C414" s="6">
+      <c r="C414" s="5">
         <v>45139</v>
       </c>
-      <c r="D414" s="4">
+      <c r="D414" s="6">
         <v>377</v>
       </c>
     </row>
@@ -6445,10 +6445,10 @@
       <c r="B415" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C415" s="6">
+      <c r="C415" s="5">
         <v>45139</v>
       </c>
-      <c r="D415" s="4">
+      <c r="D415" s="6">
         <v>1718</v>
       </c>
     </row>
@@ -6459,10 +6459,10 @@
       <c r="B416" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C416" s="6">
+      <c r="C416" s="5">
         <v>45139</v>
       </c>
-      <c r="D416" s="4">
+      <c r="D416" s="6">
         <v>3794</v>
       </c>
     </row>
@@ -6473,10 +6473,10 @@
       <c r="B417" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C417" s="6">
+      <c r="C417" s="5">
         <v>45139</v>
       </c>
-      <c r="D417" s="4">
+      <c r="D417" s="6">
         <v>65</v>
       </c>
     </row>
@@ -6487,10 +6487,10 @@
       <c r="B418" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C418" s="6">
+      <c r="C418" s="5">
         <v>45170</v>
       </c>
-      <c r="D418" s="4">
+      <c r="D418" s="6">
         <v>4502</v>
       </c>
     </row>
@@ -6501,10 +6501,10 @@
       <c r="B419" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C419" s="6">
+      <c r="C419" s="5">
         <v>45170</v>
       </c>
-      <c r="D419" s="4">
+      <c r="D419" s="6">
         <v>175603</v>
       </c>
     </row>
@@ -6515,10 +6515,10 @@
       <c r="B420" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C420" s="6">
+      <c r="C420" s="5">
         <v>45170</v>
       </c>
-      <c r="D420" s="4">
+      <c r="D420" s="6">
         <v>89384</v>
       </c>
     </row>
@@ -6529,10 +6529,10 @@
       <c r="B421" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C421" s="6">
+      <c r="C421" s="5">
         <v>45170</v>
       </c>
-      <c r="D421" s="4">
+      <c r="D421" s="6">
         <v>10631</v>
       </c>
     </row>
@@ -6543,10 +6543,10 @@
       <c r="B422" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C422" s="6">
+      <c r="C422" s="5">
         <v>45170</v>
       </c>
-      <c r="D422" s="4">
+      <c r="D422" s="6">
         <v>50679</v>
       </c>
     </row>
@@ -6557,10 +6557,10 @@
       <c r="B423" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C423" s="6">
+      <c r="C423" s="5">
         <v>45170</v>
       </c>
-      <c r="D423" s="4">
+      <c r="D423" s="6">
         <v>32307</v>
       </c>
     </row>
@@ -6571,10 +6571,10 @@
       <c r="B424" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C424" s="6">
+      <c r="C424" s="5">
         <v>45170</v>
       </c>
-      <c r="D424" s="4">
+      <c r="D424" s="6">
         <v>34736</v>
       </c>
     </row>
@@ -6585,10 +6585,10 @@
       <c r="B425" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C425" s="6">
+      <c r="C425" s="5">
         <v>45170</v>
       </c>
-      <c r="D425" s="4">
+      <c r="D425" s="6">
         <v>6264</v>
       </c>
     </row>
@@ -6599,10 +6599,10 @@
       <c r="B426" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C426" s="6">
+      <c r="C426" s="5">
         <v>45170</v>
       </c>
-      <c r="D426" s="4">
+      <c r="D426" s="6">
         <v>135677</v>
       </c>
     </row>
@@ -6613,10 +6613,10 @@
       <c r="B427" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C427" s="6">
+      <c r="C427" s="5">
         <v>45170</v>
       </c>
-      <c r="D427" s="4">
+      <c r="D427" s="6">
         <v>25848</v>
       </c>
     </row>
@@ -6627,10 +6627,10 @@
       <c r="B428" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C428" s="6">
+      <c r="C428" s="5">
         <v>45170</v>
       </c>
-      <c r="D428" s="4">
+      <c r="D428" s="6">
         <v>25818</v>
       </c>
     </row>
@@ -6641,10 +6641,10 @@
       <c r="B429" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C429" s="6">
+      <c r="C429" s="5">
         <v>45170</v>
       </c>
-      <c r="D429" s="4">
+      <c r="D429" s="6">
         <v>1415</v>
       </c>
     </row>
@@ -6655,10 +6655,10 @@
       <c r="B430" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C430" s="6">
+      <c r="C430" s="5">
         <v>45170</v>
       </c>
-      <c r="D430" s="4">
+      <c r="D430" s="6">
         <v>45989</v>
       </c>
     </row>
@@ -6669,10 +6669,10 @@
       <c r="B431" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C431" s="6">
+      <c r="C431" s="5">
         <v>45170</v>
       </c>
-      <c r="D431" s="4">
+      <c r="D431" s="6">
         <v>48187</v>
       </c>
     </row>
@@ -6683,10 +6683,10 @@
       <c r="B432" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C432" s="6">
+      <c r="C432" s="5">
         <v>45170</v>
       </c>
-      <c r="D432" s="4">
+      <c r="D432" s="6">
         <v>122</v>
       </c>
     </row>
@@ -6697,10 +6697,10 @@
       <c r="B433" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C433" s="6">
+      <c r="C433" s="5">
         <v>45170</v>
       </c>
-      <c r="D433" s="4">
+      <c r="D433" s="6">
         <v>10240</v>
       </c>
     </row>
@@ -6711,10 +6711,10 @@
       <c r="B434" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C434" s="6">
+      <c r="C434" s="5">
         <v>45170</v>
       </c>
-      <c r="D434" s="4">
+      <c r="D434" s="6">
         <v>81016</v>
       </c>
     </row>
@@ -6725,10 +6725,10 @@
       <c r="B435" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C435" s="6">
+      <c r="C435" s="5">
         <v>45170</v>
       </c>
-      <c r="D435" s="4">
+      <c r="D435" s="6">
         <v>1360</v>
       </c>
     </row>
@@ -6739,10 +6739,10 @@
       <c r="B436" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C436" s="6">
+      <c r="C436" s="5">
         <v>45170</v>
       </c>
-      <c r="D436" s="4">
+      <c r="D436" s="6">
         <v>5156</v>
       </c>
     </row>
@@ -6753,10 +6753,10 @@
       <c r="B437" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C437" s="6">
+      <c r="C437" s="5">
         <v>45170</v>
       </c>
-      <c r="D437" s="4">
+      <c r="D437" s="6">
         <v>2795</v>
       </c>
     </row>
@@ -6767,10 +6767,10 @@
       <c r="B438" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C438" s="6">
+      <c r="C438" s="5">
         <v>45170</v>
       </c>
-      <c r="D438" s="4">
+      <c r="D438" s="6">
         <v>1009</v>
       </c>
     </row>
@@ -6781,10 +6781,10 @@
       <c r="B439" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C439" s="6">
+      <c r="C439" s="5">
         <v>45170</v>
       </c>
-      <c r="D439" s="4">
+      <c r="D439" s="6">
         <v>1805</v>
       </c>
     </row>
@@ -6795,10 +6795,10 @@
       <c r="B440" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C440" s="6">
+      <c r="C440" s="5">
         <v>45170</v>
       </c>
-      <c r="D440" s="4">
+      <c r="D440" s="6">
         <v>521</v>
       </c>
     </row>
@@ -6809,10 +6809,10 @@
       <c r="B441" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C441" s="6">
+      <c r="C441" s="5">
         <v>45170</v>
       </c>
-      <c r="D441" s="4">
+      <c r="D441" s="6">
         <v>1844</v>
       </c>
     </row>
@@ -6823,10 +6823,10 @@
       <c r="B442" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C442" s="6">
+      <c r="C442" s="5">
         <v>45170</v>
       </c>
-      <c r="D442" s="4">
+      <c r="D442" s="6">
         <v>6769</v>
       </c>
     </row>
@@ -6837,10 +6837,10 @@
       <c r="B443" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C443" s="6">
+      <c r="C443" s="5">
         <v>45170</v>
       </c>
-      <c r="D443" s="4">
+      <c r="D443" s="6">
         <v>1980</v>
       </c>
     </row>
@@ -6851,10 +6851,10 @@
       <c r="B444" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C444" s="6">
+      <c r="C444" s="5">
         <v>45170</v>
       </c>
-      <c r="D444" s="4">
+      <c r="D444" s="6">
         <v>8407</v>
       </c>
     </row>
@@ -6865,10 +6865,10 @@
       <c r="B445" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C445" s="6">
+      <c r="C445" s="5">
         <v>45170</v>
       </c>
-      <c r="D445" s="4">
+      <c r="D445" s="6">
         <v>46605</v>
       </c>
     </row>
@@ -6879,10 +6879,10 @@
       <c r="B446" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C446" s="6">
+      <c r="C446" s="5">
         <v>45170</v>
       </c>
-      <c r="D446" s="4">
+      <c r="D446" s="6">
         <v>7753</v>
       </c>
     </row>
@@ -6893,10 +6893,10 @@
       <c r="B447" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C447" s="6">
+      <c r="C447" s="5">
         <v>45170</v>
       </c>
-      <c r="D447" s="4">
+      <c r="D447" s="6">
         <v>2850</v>
       </c>
     </row>
@@ -6907,10 +6907,10 @@
       <c r="B448" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C448" s="6">
+      <c r="C448" s="5">
         <v>45170</v>
       </c>
-      <c r="D448" s="4">
+      <c r="D448" s="6">
         <v>2158</v>
       </c>
     </row>
@@ -6921,10 +6921,10 @@
       <c r="B449" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C449" s="6">
+      <c r="C449" s="5">
         <v>45170</v>
       </c>
-      <c r="D449" s="4">
+      <c r="D449" s="6">
         <v>1275</v>
       </c>
     </row>
@@ -6935,10 +6935,10 @@
       <c r="B450" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C450" s="6">
+      <c r="C450" s="5">
         <v>45170</v>
       </c>
-      <c r="D450" s="4">
+      <c r="D450" s="6">
         <v>13476</v>
       </c>
     </row>
@@ -6949,10 +6949,10 @@
       <c r="B451" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C451" s="6">
+      <c r="C451" s="5">
         <v>45170</v>
       </c>
-      <c r="D451" s="4">
+      <c r="D451" s="6">
         <v>25075</v>
       </c>
     </row>
@@ -6963,10 +6963,10 @@
       <c r="B452" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C452" s="6">
+      <c r="C452" s="5">
         <v>45170</v>
       </c>
-      <c r="D452" s="4">
+      <c r="D452" s="6">
         <v>6547</v>
       </c>
     </row>
@@ -6977,10 +6977,10 @@
       <c r="B453" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C453" s="6">
+      <c r="C453" s="5">
         <v>45170</v>
       </c>
-      <c r="D453" s="4">
+      <c r="D453" s="6">
         <v>8584</v>
       </c>
     </row>
@@ -6991,10 +6991,10 @@
       <c r="B454" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C454" s="6">
+      <c r="C454" s="5">
         <v>45170</v>
       </c>
-      <c r="D454" s="4">
+      <c r="D454" s="6">
         <v>2013</v>
       </c>
     </row>
@@ -7005,10 +7005,10 @@
       <c r="B455" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C455" s="6">
+      <c r="C455" s="5">
         <v>45170</v>
       </c>
-      <c r="D455" s="4">
+      <c r="D455" s="6">
         <v>2062</v>
       </c>
     </row>
@@ -7019,10 +7019,10 @@
       <c r="B456" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C456" s="6">
+      <c r="C456" s="5">
         <v>45170</v>
       </c>
-      <c r="D456" s="4">
+      <c r="D456" s="6">
         <v>3333</v>
       </c>
     </row>
@@ -7033,10 +7033,10 @@
       <c r="B457" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C457" s="6">
+      <c r="C457" s="5">
         <v>45170</v>
       </c>
-      <c r="D457" s="4">
+      <c r="D457" s="6">
         <v>6203</v>
       </c>
     </row>
@@ -7047,10 +7047,10 @@
       <c r="B458" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C458" s="6">
+      <c r="C458" s="5">
         <v>45170</v>
       </c>
-      <c r="D458" s="4">
+      <c r="D458" s="6">
         <v>1484</v>
       </c>
     </row>
@@ -7061,10 +7061,10 @@
       <c r="B459" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C459" s="6">
+      <c r="C459" s="5">
         <v>45170</v>
       </c>
-      <c r="D459" s="4">
+      <c r="D459" s="6">
         <v>6079</v>
       </c>
     </row>
@@ -7075,10 +7075,10 @@
       <c r="B460" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C460" s="6">
+      <c r="C460" s="5">
         <v>45170</v>
       </c>
-      <c r="D460" s="4">
+      <c r="D460" s="6">
         <v>38715</v>
       </c>
     </row>
@@ -7089,10 +7089,10 @@
       <c r="B461" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C461" s="6">
+      <c r="C461" s="5">
         <v>45170</v>
       </c>
-      <c r="D461" s="4">
+      <c r="D461" s="6">
         <v>17891</v>
       </c>
     </row>
@@ -7103,10 +7103,10 @@
       <c r="B462" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C462" s="6">
+      <c r="C462" s="5">
         <v>45170</v>
       </c>
-      <c r="D462" s="4">
+      <c r="D462" s="6">
         <v>104497</v>
       </c>
     </row>
@@ -7117,10 +7117,10 @@
       <c r="B463" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C463" s="6">
+      <c r="C463" s="5">
         <v>45170</v>
       </c>
-      <c r="D463" s="4">
+      <c r="D463" s="6">
         <v>15022</v>
       </c>
     </row>
@@ -7131,10 +7131,10 @@
       <c r="B464" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C464" s="6">
+      <c r="C464" s="5">
         <v>45170</v>
       </c>
-      <c r="D464" s="4">
+      <c r="D464" s="6">
         <v>3464</v>
       </c>
     </row>
@@ -7145,10 +7145,10 @@
       <c r="B465" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C465" s="6">
+      <c r="C465" s="5">
         <v>45170</v>
       </c>
-      <c r="D465" s="4">
+      <c r="D465" s="6">
         <v>272</v>
       </c>
     </row>
@@ -7159,10 +7159,10 @@
       <c r="B466" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C466" s="6">
+      <c r="C466" s="5">
         <v>45170</v>
       </c>
-      <c r="D466" s="4">
+      <c r="D466" s="6">
         <v>412</v>
       </c>
     </row>
@@ -7173,10 +7173,10 @@
       <c r="B467" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C467" s="6">
+      <c r="C467" s="5">
         <v>45170</v>
       </c>
-      <c r="D467" s="4">
+      <c r="D467" s="6">
         <v>2323</v>
       </c>
     </row>
@@ -7187,10 +7187,10 @@
       <c r="B468" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C468" s="6">
+      <c r="C468" s="5">
         <v>45170</v>
       </c>
-      <c r="D468" s="4">
+      <c r="D468" s="6">
         <v>2575</v>
       </c>
     </row>
@@ -7201,10 +7201,10 @@
       <c r="B469" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C469" s="6">
+      <c r="C469" s="5">
         <v>45170</v>
       </c>
-      <c r="D469" s="4">
+      <c r="D469" s="6">
         <v>30</v>
       </c>
     </row>
@@ -7215,10 +7215,10 @@
       <c r="B470" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C470" s="6">
+      <c r="C470" s="5">
         <v>45200</v>
       </c>
-      <c r="D470" s="4">
+      <c r="D470" s="6">
         <v>4390</v>
       </c>
     </row>
@@ -7229,10 +7229,10 @@
       <c r="B471" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C471" s="6">
+      <c r="C471" s="5">
         <v>45200</v>
       </c>
-      <c r="D471" s="4">
+      <c r="D471" s="6">
         <v>180884</v>
       </c>
     </row>
@@ -7243,10 +7243,10 @@
       <c r="B472" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C472" s="6">
+      <c r="C472" s="5">
         <v>45200</v>
       </c>
-      <c r="D472" s="4">
+      <c r="D472" s="6">
         <v>88643</v>
       </c>
     </row>
@@ -7257,10 +7257,10 @@
       <c r="B473" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C473" s="6">
+      <c r="C473" s="5">
         <v>45200</v>
       </c>
-      <c r="D473" s="4">
+      <c r="D473" s="6">
         <v>11360</v>
       </c>
     </row>
@@ -7271,10 +7271,10 @@
       <c r="B474" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C474" s="6">
+      <c r="C474" s="5">
         <v>45200</v>
       </c>
-      <c r="D474" s="4">
+      <c r="D474" s="6">
         <v>54649</v>
       </c>
     </row>
@@ -7285,10 +7285,10 @@
       <c r="B475" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C475" s="6">
+      <c r="C475" s="5">
         <v>45200</v>
       </c>
-      <c r="D475" s="4">
+      <c r="D475" s="6">
         <v>53442</v>
       </c>
     </row>
@@ -7299,10 +7299,10 @@
       <c r="B476" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C476" s="6">
+      <c r="C476" s="5">
         <v>45200</v>
       </c>
-      <c r="D476" s="4">
+      <c r="D476" s="6">
         <v>32730</v>
       </c>
     </row>
@@ -7313,10 +7313,10 @@
       <c r="B477" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C477" s="6">
+      <c r="C477" s="5">
         <v>45200</v>
       </c>
-      <c r="D477" s="4">
+      <c r="D477" s="6">
         <v>8829</v>
       </c>
     </row>
@@ -7327,10 +7327,10 @@
       <c r="B478" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C478" s="6">
+      <c r="C478" s="5">
         <v>45200</v>
       </c>
-      <c r="D478" s="4">
+      <c r="D478" s="6">
         <v>122765</v>
       </c>
     </row>
@@ -7341,10 +7341,10 @@
       <c r="B479" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C479" s="6">
+      <c r="C479" s="5">
         <v>45200</v>
       </c>
-      <c r="D479" s="4">
+      <c r="D479" s="6">
         <v>25108</v>
       </c>
     </row>
@@ -7355,10 +7355,10 @@
       <c r="B480" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C480" s="6">
+      <c r="C480" s="5">
         <v>45200</v>
       </c>
-      <c r="D480" s="4">
+      <c r="D480" s="6">
         <v>28466</v>
       </c>
     </row>
@@ -7369,10 +7369,10 @@
       <c r="B481" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C481" s="6">
+      <c r="C481" s="5">
         <v>45200</v>
       </c>
-      <c r="D481" s="4">
+      <c r="D481" s="6">
         <v>1541</v>
       </c>
     </row>
@@ -7383,10 +7383,10 @@
       <c r="B482" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C482" s="6">
+      <c r="C482" s="5">
         <v>45200</v>
       </c>
-      <c r="D482" s="4">
+      <c r="D482" s="6">
         <v>38073</v>
       </c>
     </row>
@@ -7397,10 +7397,10 @@
       <c r="B483" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C483" s="6">
+      <c r="C483" s="5">
         <v>45200</v>
       </c>
-      <c r="D483" s="4">
+      <c r="D483" s="6">
         <v>45621</v>
       </c>
     </row>
@@ -7411,10 +7411,10 @@
       <c r="B484" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C484" s="6">
+      <c r="C484" s="5">
         <v>45200</v>
       </c>
-      <c r="D484" s="4">
+      <c r="D484" s="6">
         <v>124</v>
       </c>
     </row>
@@ -7425,10 +7425,10 @@
       <c r="B485" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C485" s="6">
+      <c r="C485" s="5">
         <v>45200</v>
       </c>
-      <c r="D485" s="4">
+      <c r="D485" s="6">
         <v>10721</v>
       </c>
     </row>
@@ -7439,10 +7439,10 @@
       <c r="B486" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C486" s="6">
+      <c r="C486" s="5">
         <v>45200</v>
       </c>
-      <c r="D486" s="4">
+      <c r="D486" s="6">
         <v>94334</v>
       </c>
     </row>
@@ -7453,10 +7453,10 @@
       <c r="B487" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C487" s="6">
+      <c r="C487" s="5">
         <v>45200</v>
       </c>
-      <c r="D487" s="4">
+      <c r="D487" s="6">
         <v>1484</v>
       </c>
     </row>
@@ -7467,10 +7467,10 @@
       <c r="B488" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C488" s="6">
+      <c r="C488" s="5">
         <v>45200</v>
       </c>
-      <c r="D488" s="4">
+      <c r="D488" s="6">
         <v>4487</v>
       </c>
     </row>
@@ -7481,10 +7481,10 @@
       <c r="B489" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C489" s="6">
+      <c r="C489" s="5">
         <v>45200</v>
       </c>
-      <c r="D489" s="4">
+      <c r="D489" s="6">
         <v>3646</v>
       </c>
     </row>
@@ -7495,10 +7495,10 @@
       <c r="B490" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C490" s="6">
+      <c r="C490" s="5">
         <v>45200</v>
       </c>
-      <c r="D490" s="4">
+      <c r="D490" s="6">
         <v>521</v>
       </c>
     </row>
@@ -7509,10 +7509,10 @@
       <c r="B491" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C491" s="6">
+      <c r="C491" s="5">
         <v>45200</v>
       </c>
-      <c r="D491" s="4">
+      <c r="D491" s="6">
         <v>1029</v>
       </c>
     </row>
@@ -7523,10 +7523,10 @@
       <c r="B492" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C492" s="6">
+      <c r="C492" s="5">
         <v>45200</v>
       </c>
-      <c r="D492" s="4">
+      <c r="D492" s="6">
         <v>473</v>
       </c>
     </row>
@@ -7537,10 +7537,10 @@
       <c r="B493" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C493" s="6">
+      <c r="C493" s="5">
         <v>45200</v>
       </c>
-      <c r="D493" s="4">
+      <c r="D493" s="6">
         <v>1764</v>
       </c>
     </row>
@@ -7551,10 +7551,10 @@
       <c r="B494" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C494" s="6">
+      <c r="C494" s="5">
         <v>45200</v>
       </c>
-      <c r="D494" s="4">
+      <c r="D494" s="6">
         <v>5534</v>
       </c>
     </row>
@@ -7565,10 +7565,10 @@
       <c r="B495" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C495" s="6">
+      <c r="C495" s="5">
         <v>45200</v>
       </c>
-      <c r="D495" s="4">
+      <c r="D495" s="6">
         <v>2058</v>
       </c>
     </row>
@@ -7579,10 +7579,10 @@
       <c r="B496" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C496" s="6">
+      <c r="C496" s="5">
         <v>45200</v>
       </c>
-      <c r="D496" s="4">
+      <c r="D496" s="6">
         <v>9006</v>
       </c>
     </row>
@@ -7593,10 +7593,10 @@
       <c r="B497" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C497" s="6">
+      <c r="C497" s="5">
         <v>45200</v>
       </c>
-      <c r="D497" s="4">
+      <c r="D497" s="6">
         <v>44140</v>
       </c>
     </row>
@@ -7607,10 +7607,10 @@
       <c r="B498" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C498" s="6">
+      <c r="C498" s="5">
         <v>45200</v>
       </c>
-      <c r="D498" s="4">
+      <c r="D498" s="6">
         <v>7580</v>
       </c>
     </row>
@@ -7621,10 +7621,10 @@
       <c r="B499" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C499" s="6">
+      <c r="C499" s="5">
         <v>45200</v>
       </c>
-      <c r="D499" s="4">
+      <c r="D499" s="6">
         <v>2371</v>
       </c>
     </row>
@@ -7635,10 +7635,10 @@
       <c r="B500" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C500" s="6">
+      <c r="C500" s="5">
         <v>45200</v>
       </c>
-      <c r="D500" s="4">
+      <c r="D500" s="6">
         <v>2636</v>
       </c>
     </row>
@@ -7649,10 +7649,10 @@
       <c r="B501" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C501" s="6">
+      <c r="C501" s="5">
         <v>45200</v>
       </c>
-      <c r="D501" s="4">
+      <c r="D501" s="6">
         <v>2059</v>
       </c>
     </row>
@@ -7663,10 +7663,10 @@
       <c r="B502" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C502" s="6">
+      <c r="C502" s="5">
         <v>45200</v>
       </c>
-      <c r="D502" s="4">
+      <c r="D502" s="6">
         <v>13088</v>
       </c>
     </row>
@@ -7677,10 +7677,10 @@
       <c r="B503" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C503" s="6">
+      <c r="C503" s="5">
         <v>45200</v>
       </c>
-      <c r="D503" s="4">
+      <c r="D503" s="6">
         <v>24581</v>
       </c>
     </row>
@@ -7691,10 +7691,10 @@
       <c r="B504" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C504" s="6">
+      <c r="C504" s="5">
         <v>45200</v>
       </c>
-      <c r="D504" s="4">
+      <c r="D504" s="6">
         <v>4058</v>
       </c>
     </row>
@@ -7705,10 +7705,10 @@
       <c r="B505" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C505" s="6">
+      <c r="C505" s="5">
         <v>45200</v>
       </c>
-      <c r="D505" s="4">
+      <c r="D505" s="6">
         <v>7363</v>
       </c>
     </row>
@@ -7719,10 +7719,10 @@
       <c r="B506" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C506" s="6">
+      <c r="C506" s="5">
         <v>45200</v>
       </c>
-      <c r="D506" s="4">
+      <c r="D506" s="6">
         <v>1776</v>
       </c>
     </row>
@@ -7733,10 +7733,10 @@
       <c r="B507" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C507" s="6">
+      <c r="C507" s="5">
         <v>45200</v>
       </c>
-      <c r="D507" s="4">
+      <c r="D507" s="6">
         <v>1776</v>
       </c>
     </row>
@@ -7747,10 +7747,10 @@
       <c r="B508" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C508" s="6">
+      <c r="C508" s="5">
         <v>45200</v>
       </c>
-      <c r="D508" s="4">
+      <c r="D508" s="6">
         <v>3952</v>
       </c>
     </row>
@@ -7761,10 +7761,10 @@
       <c r="B509" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C509" s="6">
+      <c r="C509" s="5">
         <v>45200</v>
       </c>
-      <c r="D509" s="4">
+      <c r="D509" s="6">
         <v>4717</v>
       </c>
     </row>
@@ -7775,10 +7775,10 @@
       <c r="B510" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C510" s="6">
+      <c r="C510" s="5">
         <v>45200</v>
       </c>
-      <c r="D510" s="4">
+      <c r="D510" s="6">
         <v>2273</v>
       </c>
     </row>
@@ -7789,10 +7789,10 @@
       <c r="B511" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C511" s="6">
+      <c r="C511" s="5">
         <v>45200</v>
       </c>
-      <c r="D511" s="4">
+      <c r="D511" s="6">
         <v>7121</v>
       </c>
     </row>
@@ -7803,10 +7803,10 @@
       <c r="B512" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C512" s="6">
+      <c r="C512" s="5">
         <v>45200</v>
       </c>
-      <c r="D512" s="4">
+      <c r="D512" s="6">
         <v>36194</v>
       </c>
     </row>
@@ -7817,10 +7817,10 @@
       <c r="B513" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C513" s="6">
+      <c r="C513" s="5">
         <v>45200</v>
       </c>
-      <c r="D513" s="4">
+      <c r="D513" s="6">
         <v>18715</v>
       </c>
     </row>
@@ -7831,10 +7831,10 @@
       <c r="B514" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C514" s="6">
+      <c r="C514" s="5">
         <v>45200</v>
       </c>
-      <c r="D514" s="4">
+      <c r="D514" s="6">
         <v>88033</v>
       </c>
     </row>
@@ -7845,10 +7845,10 @@
       <c r="B515" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C515" s="6">
+      <c r="C515" s="5">
         <v>45200</v>
       </c>
-      <c r="D515" s="4">
+      <c r="D515" s="6">
         <v>13059</v>
       </c>
     </row>
@@ -7859,10 +7859,10 @@
       <c r="B516" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C516" s="6">
+      <c r="C516" s="5">
         <v>45200</v>
       </c>
-      <c r="D516" s="4">
+      <c r="D516" s="6">
         <v>3511</v>
       </c>
     </row>
@@ -7873,10 +7873,10 @@
       <c r="B517" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C517" s="6">
+      <c r="C517" s="5">
         <v>45200</v>
       </c>
-      <c r="D517" s="4">
+      <c r="D517" s="6">
         <v>265</v>
       </c>
     </row>
@@ -7887,10 +7887,10 @@
       <c r="B518" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C518" s="6">
+      <c r="C518" s="5">
         <v>45200</v>
       </c>
-      <c r="D518" s="4">
+      <c r="D518" s="6">
         <v>349</v>
       </c>
     </row>
@@ -7901,10 +7901,10 @@
       <c r="B519" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C519" s="6">
+      <c r="C519" s="5">
         <v>45200</v>
       </c>
-      <c r="D519" s="4">
+      <c r="D519" s="6">
         <v>1833</v>
       </c>
     </row>
@@ -7915,10 +7915,10 @@
       <c r="B520" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C520" s="6">
+      <c r="C520" s="5">
         <v>45200</v>
       </c>
-      <c r="D520" s="4">
+      <c r="D520" s="6">
         <v>2786</v>
       </c>
     </row>
@@ -7929,10 +7929,10 @@
       <c r="B521" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C521" s="6">
+      <c r="C521" s="5">
         <v>45200</v>
       </c>
-      <c r="D521" s="4">
+      <c r="D521" s="6">
         <v>46</v>
       </c>
     </row>
@@ -7943,10 +7943,10 @@
       <c r="B522" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C522" s="6">
+      <c r="C522" s="5">
         <v>45231</v>
       </c>
-      <c r="D522" s="4">
+      <c r="D522" s="6">
         <v>4799</v>
       </c>
     </row>
@@ -7957,10 +7957,10 @@
       <c r="B523" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C523" s="6">
+      <c r="C523" s="5">
         <v>45231</v>
       </c>
-      <c r="D523" s="4">
+      <c r="D523" s="6">
         <v>184281</v>
       </c>
     </row>
@@ -7971,10 +7971,10 @@
       <c r="B524" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C524" s="6">
+      <c r="C524" s="5">
         <v>45231</v>
       </c>
-      <c r="D524" s="4">
+      <c r="D524" s="6">
         <v>93415</v>
       </c>
     </row>
@@ -7985,10 +7985,10 @@
       <c r="B525" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C525" s="6">
+      <c r="C525" s="5">
         <v>45231</v>
       </c>
-      <c r="D525" s="4">
+      <c r="D525" s="6">
         <v>11774</v>
       </c>
     </row>
@@ -7999,10 +7999,10 @@
       <c r="B526" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C526" s="6">
+      <c r="C526" s="5">
         <v>45231</v>
       </c>
-      <c r="D526" s="4">
+      <c r="D526" s="6">
         <v>61213</v>
       </c>
     </row>
@@ -8013,10 +8013,10 @@
       <c r="B527" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C527" s="6">
+      <c r="C527" s="5">
         <v>45231</v>
       </c>
-      <c r="D527" s="4">
+      <c r="D527" s="6">
         <v>26808</v>
       </c>
     </row>
@@ -8027,10 +8027,10 @@
       <c r="B528" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C528" s="6">
+      <c r="C528" s="5">
         <v>45231</v>
       </c>
-      <c r="D528" s="4">
+      <c r="D528" s="6">
         <v>27484</v>
       </c>
     </row>
@@ -8041,10 +8041,10 @@
       <c r="B529" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C529" s="6">
+      <c r="C529" s="5">
         <v>45231</v>
       </c>
-      <c r="D529" s="4">
+      <c r="D529" s="6">
         <v>8292</v>
       </c>
     </row>
@@ -8055,10 +8055,10 @@
       <c r="B530" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C530" s="6">
+      <c r="C530" s="5">
         <v>45231</v>
       </c>
-      <c r="D530" s="4">
+      <c r="D530" s="6">
         <v>104347</v>
       </c>
     </row>
@@ -8069,10 +8069,10 @@
       <c r="B531" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C531" s="6">
+      <c r="C531" s="5">
         <v>45231</v>
       </c>
-      <c r="D531" s="4">
+      <c r="D531" s="6">
         <v>22646</v>
       </c>
     </row>
@@ -8083,10 +8083,10 @@
       <c r="B532" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C532" s="6">
+      <c r="C532" s="5">
         <v>45231</v>
       </c>
-      <c r="D532" s="4">
+      <c r="D532" s="6">
         <v>21575</v>
       </c>
     </row>
@@ -8097,10 +8097,10 @@
       <c r="B533" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C533" s="6">
+      <c r="C533" s="5">
         <v>45231</v>
       </c>
-      <c r="D533" s="4">
+      <c r="D533" s="6">
         <v>1648</v>
       </c>
     </row>
@@ -8111,10 +8111,10 @@
       <c r="B534" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C534" s="6">
+      <c r="C534" s="5">
         <v>45231</v>
       </c>
-      <c r="D534" s="4">
+      <c r="D534" s="6">
         <v>41413</v>
       </c>
     </row>
@@ -8125,10 +8125,10 @@
       <c r="B535" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C535" s="6">
+      <c r="C535" s="5">
         <v>45231</v>
       </c>
-      <c r="D535" s="4">
+      <c r="D535" s="6">
         <v>42614</v>
       </c>
     </row>
@@ -8139,10 +8139,10 @@
       <c r="B536" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C536" s="6">
+      <c r="C536" s="5">
         <v>45231</v>
       </c>
-      <c r="D536" s="4">
+      <c r="D536" s="6">
         <v>128</v>
       </c>
     </row>
@@ -8153,10 +8153,10 @@
       <c r="B537" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C537" s="6">
+      <c r="C537" s="5">
         <v>45231</v>
       </c>
-      <c r="D537" s="4">
+      <c r="D537" s="6">
         <v>10118</v>
       </c>
     </row>
@@ -8167,10 +8167,10 @@
       <c r="B538" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C538" s="6">
+      <c r="C538" s="5">
         <v>45231</v>
       </c>
-      <c r="D538" s="4">
+      <c r="D538" s="6">
         <v>90231</v>
       </c>
     </row>
@@ -8181,10 +8181,10 @@
       <c r="B539" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C539" s="6">
+      <c r="C539" s="5">
         <v>45231</v>
       </c>
-      <c r="D539" s="4">
+      <c r="D539" s="6">
         <v>1404</v>
       </c>
     </row>
@@ -8195,10 +8195,10 @@
       <c r="B540" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C540" s="6">
+      <c r="C540" s="5">
         <v>45231</v>
       </c>
-      <c r="D540" s="4">
+      <c r="D540" s="6">
         <v>5048</v>
       </c>
     </row>
@@ -8209,10 +8209,10 @@
       <c r="B541" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C541" s="6">
+      <c r="C541" s="5">
         <v>45231</v>
       </c>
-      <c r="D541" s="4">
+      <c r="D541" s="6">
         <v>3156</v>
       </c>
     </row>
@@ -8223,10 +8223,10 @@
       <c r="B542" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C542" s="6">
+      <c r="C542" s="5">
         <v>45231</v>
       </c>
-      <c r="D542" s="4">
+      <c r="D542" s="6">
         <v>560</v>
       </c>
     </row>
@@ -8237,10 +8237,10 @@
       <c r="B543" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C543" s="6">
+      <c r="C543" s="5">
         <v>45231</v>
       </c>
-      <c r="D543" s="4">
+      <c r="D543" s="6">
         <v>592</v>
       </c>
     </row>
@@ -8251,10 +8251,10 @@
       <c r="B544" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C544" s="6">
+      <c r="C544" s="5">
         <v>45231</v>
       </c>
-      <c r="D544" s="4">
+      <c r="D544" s="6">
         <v>269</v>
       </c>
     </row>
@@ -8265,10 +8265,10 @@
       <c r="B545" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C545" s="6">
+      <c r="C545" s="5">
         <v>45231</v>
       </c>
-      <c r="D545" s="4">
+      <c r="D545" s="6">
         <v>2652</v>
       </c>
     </row>
@@ -8279,10 +8279,10 @@
       <c r="B546" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C546" s="6">
+      <c r="C546" s="5">
         <v>45231</v>
       </c>
-      <c r="D546" s="4">
+      <c r="D546" s="6">
         <v>5120</v>
       </c>
     </row>
@@ -8293,10 +8293,10 @@
       <c r="B547" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C547" s="6">
+      <c r="C547" s="5">
         <v>45231</v>
       </c>
-      <c r="D547" s="4">
+      <c r="D547" s="6">
         <v>1505</v>
       </c>
     </row>
@@ -8307,10 +8307,10 @@
       <c r="B548" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C548" s="6">
+      <c r="C548" s="5">
         <v>45231</v>
       </c>
-      <c r="D548" s="4">
+      <c r="D548" s="6">
         <v>13173</v>
       </c>
     </row>
@@ -8321,10 +8321,10 @@
       <c r="B549" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C549" s="6">
+      <c r="C549" s="5">
         <v>45231</v>
       </c>
-      <c r="D549" s="4">
+      <c r="D549" s="6">
         <v>58807</v>
       </c>
     </row>
@@ -8335,10 +8335,10 @@
       <c r="B550" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C550" s="6">
+      <c r="C550" s="5">
         <v>45231</v>
       </c>
-      <c r="D550" s="4">
+      <c r="D550" s="6">
         <v>8042</v>
       </c>
     </row>
@@ -8349,10 +8349,10 @@
       <c r="B551" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C551" s="6">
+      <c r="C551" s="5">
         <v>45231</v>
       </c>
-      <c r="D551" s="4">
+      <c r="D551" s="6">
         <v>2469</v>
       </c>
     </row>
@@ -8363,10 +8363,10 @@
       <c r="B552" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C552" s="6">
+      <c r="C552" s="5">
         <v>45231</v>
       </c>
-      <c r="D552" s="4">
+      <c r="D552" s="6">
         <v>2276</v>
       </c>
     </row>
@@ -8377,10 +8377,10 @@
       <c r="B553" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C553" s="6">
+      <c r="C553" s="5">
         <v>45231</v>
       </c>
-      <c r="D553" s="4">
+      <c r="D553" s="6">
         <v>2236</v>
       </c>
     </row>
@@ -8391,10 +8391,10 @@
       <c r="B554" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C554" s="6">
+      <c r="C554" s="5">
         <v>45231</v>
       </c>
-      <c r="D554" s="4">
+      <c r="D554" s="6">
         <v>12002</v>
       </c>
     </row>
@@ -8405,10 +8405,10 @@
       <c r="B555" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C555" s="6">
+      <c r="C555" s="5">
         <v>45231</v>
       </c>
-      <c r="D555" s="4">
+      <c r="D555" s="6">
         <v>26528</v>
       </c>
     </row>
@@ -8419,10 +8419,10 @@
       <c r="B556" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C556" s="6">
+      <c r="C556" s="5">
         <v>45231</v>
       </c>
-      <c r="D556" s="4">
+      <c r="D556" s="6">
         <v>4119</v>
       </c>
     </row>
@@ -8433,10 +8433,10 @@
       <c r="B557" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C557" s="6">
+      <c r="C557" s="5">
         <v>45231</v>
       </c>
-      <c r="D557" s="4">
+      <c r="D557" s="6">
         <v>7110</v>
       </c>
     </row>
@@ -8447,10 +8447,10 @@
       <c r="B558" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C558" s="6">
+      <c r="C558" s="5">
         <v>45231</v>
       </c>
-      <c r="D558" s="4">
+      <c r="D558" s="6">
         <v>1954</v>
       </c>
     </row>
@@ -8461,10 +8461,10 @@
       <c r="B559" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C559" s="6">
+      <c r="C559" s="5">
         <v>45231</v>
       </c>
-      <c r="D559" s="4">
+      <c r="D559" s="6">
         <v>2042</v>
       </c>
     </row>
@@ -8475,10 +8475,10 @@
       <c r="B560" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C560" s="6">
+      <c r="C560" s="5">
         <v>45231</v>
       </c>
-      <c r="D560" s="4">
+      <c r="D560" s="6">
         <v>4695</v>
       </c>
     </row>
@@ -8489,10 +8489,10 @@
       <c r="B561" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C561" s="6">
+      <c r="C561" s="5">
         <v>45231</v>
       </c>
-      <c r="D561" s="4">
+      <c r="D561" s="6">
         <v>4098</v>
       </c>
     </row>
@@ -8503,10 +8503,10 @@
       <c r="B562" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C562" s="6">
+      <c r="C562" s="5">
         <v>45231</v>
       </c>
-      <c r="D562" s="4">
+      <c r="D562" s="6">
         <v>2589</v>
       </c>
     </row>
@@ -8517,10 +8517,10 @@
       <c r="B563" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C563" s="6">
+      <c r="C563" s="5">
         <v>45231</v>
       </c>
-      <c r="D563" s="4">
+      <c r="D563" s="6">
         <v>6817</v>
       </c>
     </row>
@@ -8531,10 +8531,10 @@
       <c r="B564" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C564" s="6">
+      <c r="C564" s="5">
         <v>45231</v>
       </c>
-      <c r="D564" s="4">
+      <c r="D564" s="6">
         <v>43198</v>
       </c>
     </row>
@@ -8545,10 +8545,10 @@
       <c r="B565" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C565" s="6">
+      <c r="C565" s="5">
         <v>45231</v>
       </c>
-      <c r="D565" s="4">
+      <c r="D565" s="6">
         <v>19226</v>
       </c>
     </row>
@@ -8559,10 +8559,10 @@
       <c r="B566" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C566" s="6">
+      <c r="C566" s="5">
         <v>45231</v>
       </c>
-      <c r="D566" s="4">
+      <c r="D566" s="6">
         <v>88201</v>
       </c>
     </row>
@@ -8573,10 +8573,10 @@
       <c r="B567" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C567" s="6">
+      <c r="C567" s="5">
         <v>45231</v>
       </c>
-      <c r="D567" s="4">
+      <c r="D567" s="6">
         <v>9663</v>
       </c>
     </row>
@@ -8587,10 +8587,10 @@
       <c r="B568" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C568" s="6">
+      <c r="C568" s="5">
         <v>45231</v>
       </c>
-      <c r="D568" s="4">
+      <c r="D568" s="6">
         <v>3099</v>
       </c>
     </row>
@@ -8601,10 +8601,10 @@
       <c r="B569" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C569" s="6">
+      <c r="C569" s="5">
         <v>45231</v>
       </c>
-      <c r="D569" s="4">
+      <c r="D569" s="6">
         <v>269</v>
       </c>
     </row>
@@ -8615,10 +8615,10 @@
       <c r="B570" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C570" s="6">
+      <c r="C570" s="5">
         <v>45231</v>
       </c>
-      <c r="D570" s="4">
+      <c r="D570" s="6">
         <v>769</v>
       </c>
     </row>
@@ -8629,10 +8629,10 @@
       <c r="B571" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C571" s="6">
+      <c r="C571" s="5">
         <v>45231</v>
       </c>
-      <c r="D571" s="4">
+      <c r="D571" s="6">
         <v>1789</v>
       </c>
     </row>
@@ -8643,10 +8643,10 @@
       <c r="B572" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C572" s="6">
+      <c r="C572" s="5">
         <v>45231</v>
       </c>
-      <c r="D572" s="4">
+      <c r="D572" s="6">
         <v>2168</v>
       </c>
     </row>
@@ -8657,10 +8657,10 @@
       <c r="B573" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C573" s="6">
+      <c r="C573" s="5">
         <v>45231</v>
       </c>
-      <c r="D573" s="4">
+      <c r="D573" s="6">
         <v>35</v>
       </c>
     </row>
@@ -8671,10 +8671,10 @@
       <c r="B574" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C574" s="6">
+      <c r="C574" s="5">
         <v>45261</v>
       </c>
-      <c r="D574" s="4">
+      <c r="D574" s="6">
         <v>9281</v>
       </c>
     </row>
@@ -8685,10 +8685,10 @@
       <c r="B575" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C575" s="6">
+      <c r="C575" s="5">
         <v>45261</v>
       </c>
-      <c r="D575" s="4">
+      <c r="D575" s="6">
         <v>244343</v>
       </c>
     </row>
@@ -8699,10 +8699,10 @@
       <c r="B576" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C576" s="6">
+      <c r="C576" s="5">
         <v>45261</v>
       </c>
-      <c r="D576" s="4">
+      <c r="D576" s="6">
         <v>102689</v>
       </c>
     </row>
@@ -8713,10 +8713,10 @@
       <c r="B577" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C577" s="6">
+      <c r="C577" s="5">
         <v>45261</v>
       </c>
-      <c r="D577" s="4">
+      <c r="D577" s="6">
         <v>13146</v>
       </c>
     </row>
@@ -8727,10 +8727,10 @@
       <c r="B578" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C578" s="6">
+      <c r="C578" s="5">
         <v>45261</v>
       </c>
-      <c r="D578" s="4">
+      <c r="D578" s="6">
         <v>62901</v>
       </c>
     </row>
@@ -8741,10 +8741,10 @@
       <c r="B579" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C579" s="6">
+      <c r="C579" s="5">
         <v>45261</v>
       </c>
-      <c r="D579" s="4">
+      <c r="D579" s="6">
         <v>30001</v>
       </c>
     </row>
@@ -8755,10 +8755,10 @@
       <c r="B580" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C580" s="6">
+      <c r="C580" s="5">
         <v>45261</v>
       </c>
-      <c r="D580" s="4">
+      <c r="D580" s="6">
         <v>24681</v>
       </c>
     </row>
@@ -8769,10 +8769,10 @@
       <c r="B581" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C581" s="6">
+      <c r="C581" s="5">
         <v>45261</v>
       </c>
-      <c r="D581" s="4">
+      <c r="D581" s="6">
         <v>8703</v>
       </c>
     </row>
@@ -8783,10 +8783,10 @@
       <c r="B582" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C582" s="6">
+      <c r="C582" s="5">
         <v>45261</v>
       </c>
-      <c r="D582" s="4">
+      <c r="D582" s="6">
         <v>130207</v>
       </c>
     </row>
@@ -8797,10 +8797,10 @@
       <c r="B583" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C583" s="6">
+      <c r="C583" s="5">
         <v>45261</v>
       </c>
-      <c r="D583" s="4">
+      <c r="D583" s="6">
         <v>26440</v>
       </c>
     </row>
@@ -8811,10 +8811,10 @@
       <c r="B584" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C584" s="6">
+      <c r="C584" s="5">
         <v>45261</v>
       </c>
-      <c r="D584" s="4">
+      <c r="D584" s="6">
         <v>17413</v>
       </c>
     </row>
@@ -8825,10 +8825,10 @@
       <c r="B585" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C585" s="6">
+      <c r="C585" s="5">
         <v>45261</v>
       </c>
-      <c r="D585" s="4">
+      <c r="D585" s="6">
         <v>2893</v>
       </c>
     </row>
@@ -8839,10 +8839,10 @@
       <c r="B586" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C586" s="6">
+      <c r="C586" s="5">
         <v>45261</v>
       </c>
-      <c r="D586" s="4">
+      <c r="D586" s="6">
         <v>32132</v>
       </c>
     </row>
@@ -8853,10 +8853,10 @@
       <c r="B587" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C587" s="6">
+      <c r="C587" s="5">
         <v>45261</v>
       </c>
-      <c r="D587" s="4">
+      <c r="D587" s="6">
         <v>39202</v>
       </c>
     </row>
@@ -8867,10 +8867,10 @@
       <c r="B588" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C588" s="6">
+      <c r="C588" s="5">
         <v>45261</v>
       </c>
-      <c r="D588" s="4">
+      <c r="D588" s="6">
         <v>123</v>
       </c>
     </row>
@@ -8881,10 +8881,10 @@
       <c r="B589" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C589" s="6">
+      <c r="C589" s="5">
         <v>45261</v>
       </c>
-      <c r="D589" s="4">
+      <c r="D589" s="6">
         <v>11743</v>
       </c>
     </row>
@@ -8895,10 +8895,10 @@
       <c r="B590" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C590" s="6">
+      <c r="C590" s="5">
         <v>45261</v>
       </c>
-      <c r="D590" s="4">
+      <c r="D590" s="6">
         <v>92635</v>
       </c>
     </row>
@@ -8909,10 +8909,10 @@
       <c r="B591" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C591" s="6">
+      <c r="C591" s="5">
         <v>45261</v>
       </c>
-      <c r="D591" s="4">
+      <c r="D591" s="6">
         <v>1629</v>
       </c>
     </row>
@@ -8923,10 +8923,10 @@
       <c r="B592" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C592" s="6">
+      <c r="C592" s="5">
         <v>45261</v>
       </c>
-      <c r="D592" s="4">
+      <c r="D592" s="6">
         <v>5975</v>
       </c>
     </row>
@@ -8937,10 +8937,10 @@
       <c r="B593" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C593" s="6">
+      <c r="C593" s="5">
         <v>45261</v>
       </c>
-      <c r="D593" s="4">
+      <c r="D593" s="6">
         <v>2997</v>
       </c>
     </row>
@@ -8951,10 +8951,10 @@
       <c r="B594" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C594" s="6">
+      <c r="C594" s="5">
         <v>45261</v>
       </c>
-      <c r="D594" s="4">
+      <c r="D594" s="6">
         <v>427</v>
       </c>
     </row>
@@ -8965,10 +8965,10 @@
       <c r="B595" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C595" s="6">
+      <c r="C595" s="5">
         <v>45261</v>
       </c>
-      <c r="D595" s="4">
+      <c r="D595" s="6">
         <v>693</v>
       </c>
     </row>
@@ -8979,10 +8979,10 @@
       <c r="B596" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C596" s="6">
+      <c r="C596" s="5">
         <v>45261</v>
       </c>
-      <c r="D596" s="4">
+      <c r="D596" s="6">
         <v>512</v>
       </c>
     </row>
@@ -8993,10 +8993,10 @@
       <c r="B597" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C597" s="6">
+      <c r="C597" s="5">
         <v>45261</v>
       </c>
-      <c r="D597" s="4">
+      <c r="D597" s="6">
         <v>1569</v>
       </c>
     </row>
@@ -9007,10 +9007,10 @@
       <c r="B598" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C598" s="6">
+      <c r="C598" s="5">
         <v>45261</v>
       </c>
-      <c r="D598" s="4">
+      <c r="D598" s="6">
         <v>7156</v>
       </c>
     </row>
@@ -9021,10 +9021,10 @@
       <c r="B599" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C599" s="6">
+      <c r="C599" s="5">
         <v>45261</v>
       </c>
-      <c r="D599" s="4">
+      <c r="D599" s="6">
         <v>2375</v>
       </c>
     </row>
@@ -9035,10 +9035,10 @@
       <c r="B600" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C600" s="6">
+      <c r="C600" s="5">
         <v>45261</v>
       </c>
-      <c r="D600" s="4">
+      <c r="D600" s="6">
         <v>11270</v>
       </c>
     </row>
@@ -9049,10 +9049,10 @@
       <c r="B601" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C601" s="6">
+      <c r="C601" s="5">
         <v>45261</v>
       </c>
-      <c r="D601" s="4">
+      <c r="D601" s="6">
         <v>66745</v>
       </c>
     </row>
@@ -9063,10 +9063,10 @@
       <c r="B602" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C602" s="6">
+      <c r="C602" s="5">
         <v>45261</v>
       </c>
-      <c r="D602" s="4">
+      <c r="D602" s="6">
         <v>6880</v>
       </c>
     </row>
@@ -9077,10 +9077,10 @@
       <c r="B603" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C603" s="6">
+      <c r="C603" s="5">
         <v>45261</v>
       </c>
-      <c r="D603" s="4">
+      <c r="D603" s="6">
         <v>1969</v>
       </c>
     </row>
@@ -9091,10 +9091,10 @@
       <c r="B604" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C604" s="6">
+      <c r="C604" s="5">
         <v>45261</v>
       </c>
-      <c r="D604" s="4">
+      <c r="D604" s="6">
         <v>2046</v>
       </c>
     </row>
@@ -9105,10 +9105,10 @@
       <c r="B605" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C605" s="6">
+      <c r="C605" s="5">
         <v>45261</v>
       </c>
-      <c r="D605" s="4">
+      <c r="D605" s="6">
         <v>1957</v>
       </c>
     </row>
@@ -9119,10 +9119,10 @@
       <c r="B606" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C606" s="6">
+      <c r="C606" s="5">
         <v>45261</v>
       </c>
-      <c r="D606" s="4">
+      <c r="D606" s="6">
         <v>10021</v>
       </c>
     </row>
@@ -9133,10 +9133,10 @@
       <c r="B607" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C607" s="6">
+      <c r="C607" s="5">
         <v>45261</v>
       </c>
-      <c r="D607" s="4">
+      <c r="D607" s="6">
         <v>31173</v>
       </c>
     </row>
@@ -9147,10 +9147,10 @@
       <c r="B608" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C608" s="6">
+      <c r="C608" s="5">
         <v>45261</v>
       </c>
-      <c r="D608" s="4">
+      <c r="D608" s="6">
         <v>4253</v>
       </c>
     </row>
@@ -9161,10 +9161,10 @@
       <c r="B609" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C609" s="6">
+      <c r="C609" s="5">
         <v>45261</v>
       </c>
-      <c r="D609" s="4">
+      <c r="D609" s="6">
         <v>6890</v>
       </c>
     </row>
@@ -9175,10 +9175,10 @@
       <c r="B610" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C610" s="6">
+      <c r="C610" s="5">
         <v>45261</v>
       </c>
-      <c r="D610" s="4">
+      <c r="D610" s="6">
         <v>1735</v>
       </c>
     </row>
@@ -9189,10 +9189,10 @@
       <c r="B611" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C611" s="6">
+      <c r="C611" s="5">
         <v>45261</v>
       </c>
-      <c r="D611" s="4">
+      <c r="D611" s="6">
         <v>1616</v>
       </c>
     </row>
@@ -9203,10 +9203,10 @@
       <c r="B612" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C612" s="6">
+      <c r="C612" s="5">
         <v>45261</v>
       </c>
-      <c r="D612" s="4">
+      <c r="D612" s="6">
         <v>5550</v>
       </c>
     </row>
@@ -9217,10 +9217,10 @@
       <c r="B613" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C613" s="6">
+      <c r="C613" s="5">
         <v>45261</v>
       </c>
-      <c r="D613" s="4">
+      <c r="D613" s="6">
         <v>3589</v>
       </c>
     </row>
@@ -9231,10 +9231,10 @@
       <c r="B614" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C614" s="6">
+      <c r="C614" s="5">
         <v>45261</v>
       </c>
-      <c r="D614" s="4">
+      <c r="D614" s="6">
         <v>2851</v>
       </c>
     </row>
@@ -9245,10 +9245,10 @@
       <c r="B615" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C615" s="6">
+      <c r="C615" s="5">
         <v>45261</v>
       </c>
-      <c r="D615" s="4">
+      <c r="D615" s="6">
         <v>6817</v>
       </c>
     </row>
@@ -9259,10 +9259,10 @@
       <c r="B616" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C616" s="6">
+      <c r="C616" s="5">
         <v>45261</v>
       </c>
-      <c r="D616" s="4">
+      <c r="D616" s="6">
         <v>46380</v>
       </c>
     </row>
@@ -9273,10 +9273,10 @@
       <c r="B617" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C617" s="6">
+      <c r="C617" s="5">
         <v>45261</v>
       </c>
-      <c r="D617" s="4">
+      <c r="D617" s="6">
         <v>18222</v>
       </c>
     </row>
@@ -9287,10 +9287,10 @@
       <c r="B618" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C618" s="6">
+      <c r="C618" s="5">
         <v>45261</v>
       </c>
-      <c r="D618" s="4">
+      <c r="D618" s="6">
         <v>112310</v>
       </c>
     </row>
@@ -9301,10 +9301,10 @@
       <c r="B619" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C619" s="6">
+      <c r="C619" s="5">
         <v>45261</v>
       </c>
-      <c r="D619" s="4">
+      <c r="D619" s="6">
         <v>12731</v>
       </c>
     </row>
@@ -9315,10 +9315,10 @@
       <c r="B620" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C620" s="6">
+      <c r="C620" s="5">
         <v>45261</v>
       </c>
-      <c r="D620" s="4">
+      <c r="D620" s="6">
         <v>3963</v>
       </c>
     </row>
@@ -9329,10 +9329,10 @@
       <c r="B621" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C621" s="6">
+      <c r="C621" s="5">
         <v>45261</v>
       </c>
-      <c r="D621" s="4">
+      <c r="D621" s="6">
         <v>188</v>
       </c>
     </row>
@@ -9343,10 +9343,10 @@
       <c r="B622" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C622" s="6">
+      <c r="C622" s="5">
         <v>45261</v>
       </c>
-      <c r="D622" s="4">
+      <c r="D622" s="6">
         <v>977</v>
       </c>
     </row>
@@ -9357,10 +9357,10 @@
       <c r="B623" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C623" s="6">
+      <c r="C623" s="5">
         <v>45261</v>
       </c>
-      <c r="D623" s="4">
+      <c r="D623" s="6">
         <v>4245</v>
       </c>
     </row>
@@ -9371,10 +9371,10 @@
       <c r="B624" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C624" s="6">
+      <c r="C624" s="5">
         <v>45261</v>
       </c>
-      <c r="D624" s="4">
+      <c r="D624" s="6">
         <v>3500</v>
       </c>
     </row>
@@ -9385,10 +9385,10 @@
       <c r="B625" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C625" s="6">
+      <c r="C625" s="5">
         <v>45261</v>
       </c>
-      <c r="D625" s="4">
+      <c r="D625" s="6">
         <v>34</v>
       </c>
     </row>
